--- a/sauce-project/src/test/java/com/yourcompany/dataexcel.xlsx
+++ b/sauce-project/src/test/java/com/yourcompany/dataexcel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14610" windowHeight="4515" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14610" windowHeight="4515" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="4" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="Sheet5" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet6" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4335" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4389" uniqueCount="408">
   <si>
     <t>BaseUrl</t>
   </si>
@@ -1203,6 +1203,51 @@
   </si>
   <si>
     <t>Jaipur</t>
+  </si>
+  <si>
+    <t>SauceLab Information</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Access Key</t>
+  </si>
+  <si>
+    <t>testingapptrial</t>
+  </si>
+  <si>
+    <t>d64b5203-e2a4-4108-bd1b-0d311b34dc5d</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Frequency Pinpoint</t>
+  </si>
+  <si>
+    <t>Duration Pinpoint</t>
+  </si>
+  <si>
+    <t>Latency Pinpoint</t>
+  </si>
+  <si>
+    <t>CountOnly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinpoint </t>
+  </si>
+  <si>
+    <t>Countonly</t>
+  </si>
+  <si>
+    <t>Create_Pinpoint</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>90</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1351,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1353,6 +1398,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1658,15 +1706,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
@@ -1730,6 +1779,27 @@
       </c>
       <c r="B8" t="s">
         <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -1912,16 +1982,16 @@
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="2" t="s">
         <v>33</v>
       </c>
@@ -2188,31 +2258,31 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
     </row>
     <row r="4" spans="1:18">
       <c r="B4" s="8" t="s">
@@ -14880,32 +14950,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
@@ -14981,6 +15053,163 @@
       </c>
       <c r="L3" s="12" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -15313,7 +15542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -15354,10 +15583,10 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="28"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
@@ -15394,11 +15623,11 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
@@ -15435,10 +15664,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="28" t="s">
         <v>372</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="28"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">

--- a/sauce-project/src/test/java/com/yourcompany/dataexcel.xlsx
+++ b/sauce-project/src/test/java/com/yourcompany/dataexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14610" windowHeight="4515" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14610" windowHeight="4515"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="4" r:id="rId1"/>
@@ -1708,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14952,7 +14952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/sauce-project/src/test/java/com/yourcompany/dataexcel.xlsx
+++ b/sauce-project/src/test/java/com/yourcompany/dataexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14610" windowHeight="4515"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14610" windowHeight="4515" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4389" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4436" uniqueCount="421">
   <si>
     <t>BaseUrl</t>
   </si>
@@ -1076,45 +1076,9 @@
     <t>Alen</t>
   </si>
   <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Bruice</t>
-  </si>
-  <si>
-    <t>Helena</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>Create Group</t>
   </si>
   <si>
@@ -1248,13 +1212,88 @@
   </si>
   <si>
     <t>90</t>
+  </si>
+  <si>
+    <t>Creat Pinpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensory In </t>
+  </si>
+  <si>
+    <t>Physical Out</t>
+  </si>
+  <si>
+    <t>Action Verb</t>
+  </si>
+  <si>
+    <t>Object receiving action</t>
+  </si>
+  <si>
+    <t>Acc Aim Min</t>
+  </si>
+  <si>
+    <t>Acc Aim Max</t>
+  </si>
+  <si>
+    <t>Dec Aim Min</t>
+  </si>
+  <si>
+    <t>Dec Aim Max</t>
+  </si>
+  <si>
+    <t>Counting Time</t>
+  </si>
+  <si>
+    <t>Cal Days To Aim</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Pinpoint Goal</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CountOnly </t>
+  </si>
+  <si>
+    <t>GeometricMean</t>
+  </si>
+  <si>
+    <t>Assign Pinpoint</t>
+  </si>
+  <si>
+    <t>Pinpoint Name</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>- do work hard</t>
+  </si>
+  <si>
+    <t>Create_Category</t>
+  </si>
+  <si>
+    <t>NewCategory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1291,6 +1330,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1351,7 +1398,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1402,10 +1449,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1708,7 +1759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1748,7 +1799,7 @@
         <v>317</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>320</v>
@@ -1783,23 +1834,23 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="25" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="12" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -1828,7 +1879,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1982,16 +2033,16 @@
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="2" t="s">
         <v>33</v>
       </c>
@@ -2242,10 +2293,13 @@
   <dimension ref="A1:R229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
@@ -2258,31 +2312,31 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
     </row>
     <row r="4" spans="1:18">
       <c r="B4" s="8" t="s">
@@ -14950,10 +15004,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14964,20 +15018,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
@@ -15057,12 +15111,12 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>42</v>
@@ -15077,30 +15131,30 @@
         <v>335</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>312</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>44</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>42</v>
@@ -15112,33 +15166,33 @@
         <v>57</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>312</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>44</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>42</v>
@@ -15153,30 +15207,30 @@
         <v>335</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>312</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>44</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>42</v>
@@ -15185,31 +15239,46 @@
         <v>42</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>335</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>312</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>44</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>406</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="12" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -15217,6 +15286,7 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15422,20 +15492,38 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:17">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -15449,7 +15537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>349</v>
       </c>
@@ -15463,78 +15551,259 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>361</v>
+    <row r="4" spans="1:17">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>410</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>411</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" t="s">
+        <v>240</v>
+      </c>
+      <c r="K11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" t="s">
+        <v>412</v>
+      </c>
+      <c r="N11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="B14" s="27"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="12" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15542,7 +15811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -15557,7 +15826,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -15565,28 +15834,28 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="12" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="B8" s="28"/>
+      <c r="A8" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" s="30"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
@@ -15596,38 +15865,38 @@
         <v>331</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30">
       <c r="A10" s="23" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="28" t="s">
-        <v>370</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
@@ -15637,58 +15906,58 @@
         <v>331</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="12" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="28" t="s">
-        <v>372</v>
-      </c>
-      <c r="B17" s="28"/>
+      <c r="A17" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="B17" s="30"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -15696,26 +15965,26 @@
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="12" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -15726,31 +15995,31 @@
         <v>331</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="12" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/sauce-project/src/test/java/com/yourcompany/dataexcel.xlsx
+++ b/sauce-project/src/test/java/com/yourcompany/dataexcel.xlsx
@@ -14,7 +14,7 @@
     <sheet name="addcondition" sheetId="5" r:id="rId5"/>
     <sheet name="assignpinpoint" sheetId="6" r:id="rId6"/>
     <sheet name="group" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet4" sheetId="8" r:id="rId8"/>
+    <sheet name="frequencytest" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet5" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet6" sheetId="10" r:id="rId10"/>
   </sheets>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4436" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4550" uniqueCount="449">
   <si>
     <t>BaseUrl</t>
   </si>
@@ -1271,29 +1271,116 @@
     <t>Pinpoint Name</t>
   </si>
   <si>
-    <t>do</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>- do work hard</t>
-  </si>
-  <si>
     <t>Create_Category</t>
   </si>
   <si>
     <t>NewCategory</t>
+  </si>
+  <si>
+    <t>doing</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Create_chart_using_frevalue_measurement</t>
+  </si>
+  <si>
+    <t>Frequency(per min)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count time in format(hh:mm:ss) </t>
+  </si>
+  <si>
+    <t>Count Time</t>
+  </si>
+  <si>
+    <t>Deceleraton</t>
+  </si>
+  <si>
+    <t>AccelPointFre</t>
+  </si>
+  <si>
+    <t>DecelPointFre</t>
+  </si>
+  <si>
+    <t>- Verify Frequency</t>
+  </si>
+  <si>
+    <t>FrequencyTest</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>Assign Performer To Group</t>
+  </si>
+  <si>
+    <t>AssignPerformerToGroup</t>
+  </si>
+  <si>
+    <t>This is test to assign performer to group</t>
+  </si>
+  <si>
+    <t>Lucknow</t>
+  </si>
+  <si>
+    <t>Performer Name</t>
+  </si>
+  <si>
+    <t>AssignPinpointToGroup</t>
+  </si>
+  <si>
+    <t>This is test to assign pinpoint to group</t>
+  </si>
+  <si>
+    <t>Agra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- doing work </t>
+  </si>
+  <si>
+    <t>- doing work hard</t>
+  </si>
+  <si>
+    <t>Assign Pinpoint  To Group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1342,8 +1429,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1365,6 +1459,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,14 +1491,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1453,6 +1554,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1463,7 +1573,8 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2033,16 +2144,16 @@
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="2" t="s">
         <v>33</v>
       </c>
@@ -2312,31 +2423,31 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
     </row>
     <row r="4" spans="1:18">
       <c r="B4" s="8" t="s">
@@ -15007,7 +15118,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D5" sqref="D5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15018,20 +15129,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
@@ -15268,7 +15379,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -15278,7 +15389,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -15294,7 +15405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -15495,7 +15606,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15618,13 +15729,13 @@
         <v>42</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>416</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>417</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>312</v>
@@ -15646,31 +15757,31 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29" t="s">
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29" t="s">
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
@@ -15727,14 +15838,14 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="D12" s="12" t="s">
         <v>42</v>
       </c>
@@ -15742,11 +15853,11 @@
         <v>42</v>
       </c>
       <c r="F12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="H12" s="12" t="s">
         <v>42</v>
       </c>
@@ -15754,11 +15865,11 @@
         <v>42</v>
       </c>
       <c r="J12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="L12" s="12" t="s">
         <v>42</v>
       </c>
@@ -15769,7 +15880,7 @@
         <v>42</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P12" s="12" t="s">
         <v>42</v>
@@ -15779,10 +15890,10 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="32" t="s">
         <v>413</v>
       </c>
-      <c r="B14" s="27"/>
+      <c r="B14" s="32"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
@@ -15791,7 +15902,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="12" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -15809,15 +15920,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
@@ -15852,10 +15963,10 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="35"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
@@ -15892,11 +16003,11 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
@@ -15933,10 +16044,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="35"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
@@ -16020,6 +16131,82 @@
       </c>
       <c r="E29" s="12" t="s">
         <v>359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>439</v>
+      </c>
+      <c r="B34" t="s">
+        <v>440</v>
+      </c>
+      <c r="C34" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="12" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -16035,13 +16222,439 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>410</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>411</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" t="s">
+        <v>240</v>
+      </c>
+      <c r="K11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" t="s">
+        <v>412</v>
+      </c>
+      <c r="N11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B14" s="28"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="12" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E19" t="s">
+        <v>427</v>
+      </c>
+      <c r="F19" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="29">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="29">
+        <v>1.0416666666666667E-4</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>133</v>
+      </c>
+      <c r="F21">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="29">
+        <v>9.0277777777777784E-4</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="E22">
+        <v>46</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="29">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="29">
+        <v>9.2592592592592585E-4</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24">
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:Q10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sauce-project/src/test/java/com/yourcompany/dataexcel.xlsx
+++ b/sauce-project/src/test/java/com/yourcompany/dataexcel.xlsx
@@ -1367,10 +1367,10 @@
     <t xml:space="preserve">- doing work </t>
   </si>
   <si>
-    <t>- doing work hard</t>
-  </si>
-  <si>
     <t>Assign Pinpoint  To Group</t>
+  </si>
+  <si>
+    <t>- verify frequency</t>
   </si>
 </sst>
 </file>
@@ -15923,7 +15923,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16172,7 +16172,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -16206,7 +16206,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="12" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/sauce-project/src/test/java/com/yourcompany/dataexcel.xlsx
+++ b/sauce-project/src/test/java/com/yourcompany/dataexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14610" windowHeight="4515" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14610" windowHeight="4515" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="assignpinpoint" sheetId="6" r:id="rId6"/>
     <sheet name="group" sheetId="7" r:id="rId7"/>
     <sheet name="frequencytest" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet5" sheetId="9" r:id="rId9"/>
+    <sheet name="user" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet6" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4550" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4563" uniqueCount="456">
   <si>
     <t>BaseUrl</t>
   </si>
@@ -1371,6 +1371,27 @@
   </si>
   <si>
     <t>- verify frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invite User </t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Account Password</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>testingapptrial+dev_supervisor@gmail.com</t>
+  </si>
+  <si>
+    <t>testingapptrial+dev_advisor@gmail.com</t>
+  </si>
+  <si>
+    <t>testingapptrial+dev_manager@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1520,7 @@
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1572,6 +1593,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -15922,7 +15944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
@@ -16225,7 +16247,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16660,12 +16682,79 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="43.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1" s="32"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/sauce-project/src/test/java/com/yourcompany/dataexcel.xlsx
+++ b/sauce-project/src/test/java/com/yourcompany/dataexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14610" windowHeight="4515" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13515" windowHeight="6210" tabRatio="710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="4" r:id="rId1"/>
@@ -15,15 +15,19 @@
     <sheet name="assignpinpoint" sheetId="6" r:id="rId6"/>
     <sheet name="group" sheetId="7" r:id="rId7"/>
     <sheet name="frequencytest" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet5" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet6" sheetId="10" r:id="rId10"/>
+    <sheet name="charts" sheetId="11" r:id="rId9"/>
+    <sheet name="organization" sheetId="12" r:id="rId10"/>
+    <sheet name="OverwritePinValue" sheetId="13" r:id="rId11"/>
+    <sheet name="FACC" sheetId="14" r:id="rId12"/>
+    <sheet name="Category" sheetId="15" r:id="rId13"/>
+    <sheet name="Test" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4550" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6211" uniqueCount="1023">
   <si>
     <t>BaseUrl</t>
   </si>
@@ -1133,9 +1137,6 @@
     <t>NewDelhi</t>
   </si>
   <si>
-    <t>AddUsrGrp</t>
-  </si>
-  <si>
     <t>Test add user through access control</t>
   </si>
   <si>
@@ -1160,9 +1161,6 @@
     <t>Kolkata</t>
   </si>
   <si>
-    <t>DelUsrGroup</t>
-  </si>
-  <si>
     <t>Test delete the group user</t>
   </si>
   <si>
@@ -1277,6 +1275,9 @@
     <t>hard</t>
   </si>
   <si>
+    <t>- do work hard</t>
+  </si>
+  <si>
     <t>Create_Category</t>
   </si>
   <si>
@@ -1340,13 +1341,490 @@
     <t>180</t>
   </si>
   <si>
-    <t>Assign Performer To Group</t>
-  </si>
-  <si>
-    <t>AssignPerformerToGroup</t>
-  </si>
-  <si>
-    <t>This is test to assign performer to group</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Fifteen</t>
+  </si>
+  <si>
+    <t>Measure of chart</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>2015/12/8</t>
+  </si>
+  <si>
+    <t>2015/12/9</t>
+  </si>
+  <si>
+    <t>2015/12/10</t>
+  </si>
+  <si>
+    <t>2015/12/11</t>
+  </si>
+  <si>
+    <t>2015/12/12</t>
+  </si>
+  <si>
+    <t>2015/12/14</t>
+  </si>
+  <si>
+    <t>2015/12/15</t>
+  </si>
+  <si>
+    <t>2015/12/16</t>
+  </si>
+  <si>
+    <t>2015/12/17</t>
+  </si>
+  <si>
+    <t>2015/12/18</t>
+  </si>
+  <si>
+    <t>2015/12/19</t>
+  </si>
+  <si>
+    <t>2015/12/21</t>
+  </si>
+  <si>
+    <t>2015/12/22</t>
+  </si>
+  <si>
+    <t>2015/12/23</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>fifteen</t>
+  </si>
+  <si>
+    <t>ChartfifteenMeasurePer</t>
+  </si>
+  <si>
+    <t>ChartfifteenPinpointMeasurePer</t>
+  </si>
+  <si>
+    <t>Create Pinpoint</t>
+  </si>
+  <si>
+    <t>Sensory In</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>CountTime</t>
+  </si>
+  <si>
+    <t>Day to Aim</t>
+  </si>
+  <si>
+    <t>Across Days</t>
+  </si>
+  <si>
+    <t>Fifteen Measure</t>
+  </si>
+  <si>
+    <t>pinpoint</t>
+  </si>
+  <si>
+    <t>Search Pinpoint Name</t>
+  </si>
+  <si>
+    <t>Create chart using measurement</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Count Only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First </t>
+  </si>
+  <si>
+    <t>GeoMean</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Measurement Recurrance</t>
+  </si>
+  <si>
+    <t>2015/12/24</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measure </t>
+  </si>
+  <si>
+    <t>On worksheet</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>In timeline</t>
+  </si>
+  <si>
+    <t>EditMeasruePerwork</t>
+  </si>
+  <si>
+    <t>EditMeasurePerTime</t>
+  </si>
+  <si>
+    <t>Edit Measure</t>
+  </si>
+  <si>
+    <t>pinpoint timeline</t>
+  </si>
+  <si>
+    <t>Performer worksheet</t>
+  </si>
+  <si>
+    <t>ArchiveChart</t>
+  </si>
+  <si>
+    <t>Archive</t>
+  </si>
+  <si>
+    <t>Chart</t>
+  </si>
+  <si>
+    <t>in timeline</t>
+  </si>
+  <si>
+    <t>Aims</t>
+  </si>
+  <si>
+    <t>Counttym</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>Grid Line</t>
+  </si>
+  <si>
+    <t>Bounce</t>
+  </si>
+  <si>
+    <t>Celeration</t>
+  </si>
+  <si>
+    <t>Connecting</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Extend celeration</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>Record ceiling</t>
+  </si>
+  <si>
+    <t>Start Date line</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>HistoryChartPer</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>of chart</t>
+  </si>
+  <si>
+    <t>DAMx</t>
+  </si>
+  <si>
+    <t>DAMi</t>
+  </si>
+  <si>
+    <t>Overwrite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assign pinpoint overwrite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>Sen IN</t>
+  </si>
+  <si>
+    <t>Phy OUT</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Count time</t>
+  </si>
+  <si>
+    <t>DTA</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>Search Pinpoint</t>
+  </si>
+  <si>
+    <t>over</t>
+  </si>
+  <si>
+    <t>Overwrite Assign pinpoint value</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Pinpoint goal</t>
+  </si>
+  <si>
+    <t>AggregateType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max </t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>pin value</t>
+  </si>
+  <si>
+    <t>Delete Pinpoint Associate data Gone from the chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create pinpoint </t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>AssociateDataGone</t>
+  </si>
+  <si>
+    <t>DeletePinpointAssociateChartGone</t>
+  </si>
+  <si>
+    <t>AssociatePerformer1</t>
+  </si>
+  <si>
+    <t>AssociatePerformer2</t>
+  </si>
+  <si>
+    <t>DeletePinpointAssociatePerformer</t>
+  </si>
+  <si>
+    <t>delete pinpoint</t>
+  </si>
+  <si>
+    <t>Functioan Analysis Celeration Chart</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>Sen In</t>
+  </si>
+  <si>
+    <t>Phy Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">object </t>
+  </si>
+  <si>
+    <t>Selection of condition for FA</t>
+  </si>
+  <si>
+    <t>Default TT</t>
+  </si>
+  <si>
+    <t>No of TT</t>
+  </si>
+  <si>
+    <t>Alone</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>Free Play</t>
+  </si>
+  <si>
+    <t>Tangile</t>
+  </si>
+  <si>
+    <t>User defined</t>
+  </si>
+  <si>
+    <t>verify</t>
+  </si>
+  <si>
+    <t>comfirm</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>facc</t>
+  </si>
+  <si>
+    <t>Edit Pinpoint Name and default value</t>
+  </si>
+  <si>
+    <t>Create pinpoint</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>namevalue</t>
+  </si>
+  <si>
+    <t>Edit pinpoint name or value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinpoint </t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>ChangeTheCustomerOrderofPinpointInPerformerPinpoint</t>
+  </si>
+  <si>
+    <t>CustomPerformer</t>
+  </si>
+  <si>
+    <t>CustomPerformer1</t>
+  </si>
+  <si>
+    <t>CustomPerformer2</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>VerifyAggregateTypeInViewChart</t>
+  </si>
+  <si>
+    <t>verifyAggPerformer</t>
+  </si>
+  <si>
+    <t>VerifyAggPinpoint1</t>
+  </si>
+  <si>
+    <t>aggregate</t>
+  </si>
+  <si>
+    <t>inviewchart</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Create Category</t>
+  </si>
+  <si>
+    <t>CatName</t>
+  </si>
+  <si>
+    <t>Sub Catgory Name</t>
+  </si>
+  <si>
+    <t>Alebgra</t>
+  </si>
+  <si>
+    <t>Assign Performer to Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AssignPerformerToGroup</t>
+  </si>
+  <si>
+    <t>This is test for assign performer To group</t>
   </si>
   <si>
     <t>Lucknow</t>
@@ -1355,22 +1833,1270 @@
     <t>Performer Name</t>
   </si>
   <si>
-    <t>AssignPinpointToGroup</t>
-  </si>
-  <si>
-    <t>This is test to assign pinpoint to group</t>
+    <t>GroupPerformer</t>
   </si>
   <si>
     <t>Agra</t>
   </si>
   <si>
-    <t xml:space="preserve">- doing work </t>
-  </si>
-  <si>
-    <t>Assign Pinpoint  To Group</t>
-  </si>
-  <si>
-    <t>- verify frequency</t>
+    <t>AddPinpointToGroup</t>
+  </si>
+  <si>
+    <t>togroup</t>
+  </si>
+  <si>
+    <t>Assign Pinpoint to Group</t>
+  </si>
+  <si>
+    <t>This is test for assign pinpoint To group</t>
+  </si>
+  <si>
+    <t>adds</t>
+  </si>
+  <si>
+    <t>Add Pinpoint to Group</t>
+  </si>
+  <si>
+    <t>AddUsrGrps</t>
+  </si>
+  <si>
+    <t>DelUsrGroupss</t>
+  </si>
+  <si>
+    <t>VerifyAggregareType</t>
+  </si>
+  <si>
+    <t>PerformerforAgg</t>
+  </si>
+  <si>
+    <t>VerifyAggreagatetype</t>
+  </si>
+  <si>
+    <t>verifyAggregateType</t>
+  </si>
+  <si>
+    <t>VerifyAggreate Type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>aggregate type</t>
+  </si>
+  <si>
+    <t>Create Pinpoint in Category</t>
+  </si>
+  <si>
+    <t>CreatePinpoinInCategory</t>
+  </si>
+  <si>
+    <t>Create pinpoint in category</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>createpinpoint</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Create SubCategory in Category</t>
+  </si>
+  <si>
+    <t>Netword</t>
+  </si>
+  <si>
+    <t>Ubuntu</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Delete Pinpoint from category</t>
+  </si>
+  <si>
+    <t>Delete pinpoint from category</t>
+  </si>
+  <si>
+    <t>DeletePinFromCate</t>
+  </si>
+  <si>
+    <t>deletepin</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>Delete Category which has pin</t>
+  </si>
+  <si>
+    <t>DeleteCategoryWhichHasPin</t>
+  </si>
+  <si>
+    <t>whichhas</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>deletcate</t>
+  </si>
+  <si>
+    <t>Group Sort</t>
+  </si>
+  <si>
+    <t>A_Group</t>
+  </si>
+  <si>
+    <t>a_group</t>
+  </si>
+  <si>
+    <t>Z_Group</t>
+  </si>
+  <si>
+    <t>z_group</t>
+  </si>
+  <si>
+    <t>1_Group</t>
+  </si>
+  <si>
+    <t>9_group</t>
+  </si>
+  <si>
+    <t>A group for sort</t>
+  </si>
+  <si>
+    <t>Z group for sort</t>
+  </si>
+  <si>
+    <t>a group for sort</t>
+  </si>
+  <si>
+    <t>z group for sort</t>
+  </si>
+  <si>
+    <t>1 group for sort</t>
+  </si>
+  <si>
+    <t>9 group for sort</t>
+  </si>
+  <si>
+    <t>This is group</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Gp1</t>
+  </si>
+  <si>
+    <t>Gp2</t>
+  </si>
+  <si>
+    <t>Gp3</t>
+  </si>
+  <si>
+    <t>Gp4</t>
+  </si>
+  <si>
+    <t>Gp5</t>
+  </si>
+  <si>
+    <t>Gp6</t>
+  </si>
+  <si>
+    <t>Gp7</t>
+  </si>
+  <si>
+    <t>Gp8</t>
+  </si>
+  <si>
+    <t>Gp9</t>
+  </si>
+  <si>
+    <t>Gp10</t>
+  </si>
+  <si>
+    <t>Gp11</t>
+  </si>
+  <si>
+    <t>Gp12</t>
+  </si>
+  <si>
+    <t>Gp13</t>
+  </si>
+  <si>
+    <t>Gp14</t>
+  </si>
+  <si>
+    <t>Gp15</t>
+  </si>
+  <si>
+    <t>Gp16</t>
+  </si>
+  <si>
+    <t>Gp17</t>
+  </si>
+  <si>
+    <t>Gp18</t>
+  </si>
+  <si>
+    <t>Gp19</t>
+  </si>
+  <si>
+    <t>Gp20</t>
+  </si>
+  <si>
+    <t>Gp21</t>
+  </si>
+  <si>
+    <t>Gp22</t>
+  </si>
+  <si>
+    <t>Gp23</t>
+  </si>
+  <si>
+    <t>Gp24</t>
+  </si>
+  <si>
+    <t>Gp25</t>
+  </si>
+  <si>
+    <t>Gp26</t>
+  </si>
+  <si>
+    <t>Gp27</t>
+  </si>
+  <si>
+    <t>Gp28</t>
+  </si>
+  <si>
+    <t>Gp29</t>
+  </si>
+  <si>
+    <t>Gp30</t>
+  </si>
+  <si>
+    <t>Gp31</t>
+  </si>
+  <si>
+    <t>Gp32</t>
+  </si>
+  <si>
+    <t>Gp33</t>
+  </si>
+  <si>
+    <t>Gp34</t>
+  </si>
+  <si>
+    <t>Gp35</t>
+  </si>
+  <si>
+    <t>Gp36</t>
+  </si>
+  <si>
+    <t>Gp37</t>
+  </si>
+  <si>
+    <t>Gp38</t>
+  </si>
+  <si>
+    <t>Gp39</t>
+  </si>
+  <si>
+    <t>Gp40</t>
+  </si>
+  <si>
+    <t>Gp41</t>
+  </si>
+  <si>
+    <t>Gp42</t>
+  </si>
+  <si>
+    <t>Gp43</t>
+  </si>
+  <si>
+    <t>Gp44</t>
+  </si>
+  <si>
+    <t>Gp45</t>
+  </si>
+  <si>
+    <t>Gp46</t>
+  </si>
+  <si>
+    <t>Gp47</t>
+  </si>
+  <si>
+    <t>Gp48</t>
+  </si>
+  <si>
+    <t>Gp49</t>
+  </si>
+  <si>
+    <t>Gp50</t>
+  </si>
+  <si>
+    <t>Gp51</t>
+  </si>
+  <si>
+    <t>Gp52</t>
+  </si>
+  <si>
+    <t>Gp53</t>
+  </si>
+  <si>
+    <t>Gp54</t>
+  </si>
+  <si>
+    <t>Gp55</t>
+  </si>
+  <si>
+    <t>Gp56</t>
+  </si>
+  <si>
+    <t>Gp57</t>
+  </si>
+  <si>
+    <t>Gp58</t>
+  </si>
+  <si>
+    <t>Gp59</t>
+  </si>
+  <si>
+    <t>Gp60</t>
+  </si>
+  <si>
+    <t>Gp61</t>
+  </si>
+  <si>
+    <t>Gp62</t>
+  </si>
+  <si>
+    <t>Gp63</t>
+  </si>
+  <si>
+    <t>Gp64</t>
+  </si>
+  <si>
+    <t>Gp65</t>
+  </si>
+  <si>
+    <t>Gp66</t>
+  </si>
+  <si>
+    <t>Gp67</t>
+  </si>
+  <si>
+    <t>Gp68</t>
+  </si>
+  <si>
+    <t>Gp69</t>
+  </si>
+  <si>
+    <t>Gp70</t>
+  </si>
+  <si>
+    <t>Gp71</t>
+  </si>
+  <si>
+    <t>Gp72</t>
+  </si>
+  <si>
+    <t>Gp73</t>
+  </si>
+  <si>
+    <t>Gp74</t>
+  </si>
+  <si>
+    <t>Gp75</t>
+  </si>
+  <si>
+    <t>Gp76</t>
+  </si>
+  <si>
+    <t>Gp77</t>
+  </si>
+  <si>
+    <t>Gp78</t>
+  </si>
+  <si>
+    <t>Gp79</t>
+  </si>
+  <si>
+    <t>Gp80</t>
+  </si>
+  <si>
+    <t>Gp81</t>
+  </si>
+  <si>
+    <t>Gp82</t>
+  </si>
+  <si>
+    <t>Gp83</t>
+  </si>
+  <si>
+    <t>Gp84</t>
+  </si>
+  <si>
+    <t>Gp85</t>
+  </si>
+  <si>
+    <t>Gp86</t>
+  </si>
+  <si>
+    <t>Gp87</t>
+  </si>
+  <si>
+    <t>Gp88</t>
+  </si>
+  <si>
+    <t>Gp89</t>
+  </si>
+  <si>
+    <t>Gp90</t>
+  </si>
+  <si>
+    <t>Gp91</t>
+  </si>
+  <si>
+    <t>Gp92</t>
+  </si>
+  <si>
+    <t>Gp93</t>
+  </si>
+  <si>
+    <t>Gp94</t>
+  </si>
+  <si>
+    <t>Gp95</t>
+  </si>
+  <si>
+    <t>Gp96</t>
+  </si>
+  <si>
+    <t>Gp97</t>
+  </si>
+  <si>
+    <t>Gp98</t>
+  </si>
+  <si>
+    <t>Gp99</t>
+  </si>
+  <si>
+    <t>this is 1</t>
+  </si>
+  <si>
+    <t>this is 2</t>
+  </si>
+  <si>
+    <t>this is 3</t>
+  </si>
+  <si>
+    <t>this is 4</t>
+  </si>
+  <si>
+    <t>this is 5</t>
+  </si>
+  <si>
+    <t>this is 6</t>
+  </si>
+  <si>
+    <t>this is 7</t>
+  </si>
+  <si>
+    <t>this is 8</t>
+  </si>
+  <si>
+    <t>this is 9</t>
+  </si>
+  <si>
+    <t>this is 10</t>
+  </si>
+  <si>
+    <t>this is 11</t>
+  </si>
+  <si>
+    <t>this is 12</t>
+  </si>
+  <si>
+    <t>this is 13</t>
+  </si>
+  <si>
+    <t>this is 14</t>
+  </si>
+  <si>
+    <t>this is 15</t>
+  </si>
+  <si>
+    <t>this is 16</t>
+  </si>
+  <si>
+    <t>this is 17</t>
+  </si>
+  <si>
+    <t>this is 18</t>
+  </si>
+  <si>
+    <t>this is 19</t>
+  </si>
+  <si>
+    <t>this is 20</t>
+  </si>
+  <si>
+    <t>this is 21</t>
+  </si>
+  <si>
+    <t>this is 22</t>
+  </si>
+  <si>
+    <t>this is 23</t>
+  </si>
+  <si>
+    <t>this is 24</t>
+  </si>
+  <si>
+    <t>this is 25</t>
+  </si>
+  <si>
+    <t>this is 26</t>
+  </si>
+  <si>
+    <t>this is 27</t>
+  </si>
+  <si>
+    <t>this is 28</t>
+  </si>
+  <si>
+    <t>this is 29</t>
+  </si>
+  <si>
+    <t>this is 30</t>
+  </si>
+  <si>
+    <t>this is 31</t>
+  </si>
+  <si>
+    <t>this is 32</t>
+  </si>
+  <si>
+    <t>this is 33</t>
+  </si>
+  <si>
+    <t>this is 34</t>
+  </si>
+  <si>
+    <t>this is 35</t>
+  </si>
+  <si>
+    <t>this is 36</t>
+  </si>
+  <si>
+    <t>this is 37</t>
+  </si>
+  <si>
+    <t>this is 38</t>
+  </si>
+  <si>
+    <t>this is 39</t>
+  </si>
+  <si>
+    <t>this is 40</t>
+  </si>
+  <si>
+    <t>this is 41</t>
+  </si>
+  <si>
+    <t>this is 42</t>
+  </si>
+  <si>
+    <t>this is 43</t>
+  </si>
+  <si>
+    <t>this is 44</t>
+  </si>
+  <si>
+    <t>this is 45</t>
+  </si>
+  <si>
+    <t>this is 46</t>
+  </si>
+  <si>
+    <t>this is 47</t>
+  </si>
+  <si>
+    <t>this is 48</t>
+  </si>
+  <si>
+    <t>this is 49</t>
+  </si>
+  <si>
+    <t>this is 50</t>
+  </si>
+  <si>
+    <t>this is 51</t>
+  </si>
+  <si>
+    <t>this is 52</t>
+  </si>
+  <si>
+    <t>this is 53</t>
+  </si>
+  <si>
+    <t>this is 54</t>
+  </si>
+  <si>
+    <t>this is 55</t>
+  </si>
+  <si>
+    <t>this is 56</t>
+  </si>
+  <si>
+    <t>this is 57</t>
+  </si>
+  <si>
+    <t>this is 58</t>
+  </si>
+  <si>
+    <t>this is 59</t>
+  </si>
+  <si>
+    <t>this is 60</t>
+  </si>
+  <si>
+    <t>this is 61</t>
+  </si>
+  <si>
+    <t>this is 62</t>
+  </si>
+  <si>
+    <t>this is 63</t>
+  </si>
+  <si>
+    <t>this is 64</t>
+  </si>
+  <si>
+    <t>this is 65</t>
+  </si>
+  <si>
+    <t>this is 66</t>
+  </si>
+  <si>
+    <t>this is 67</t>
+  </si>
+  <si>
+    <t>this is 68</t>
+  </si>
+  <si>
+    <t>this is 69</t>
+  </si>
+  <si>
+    <t>this is 70</t>
+  </si>
+  <si>
+    <t>this is 71</t>
+  </si>
+  <si>
+    <t>this is 72</t>
+  </si>
+  <si>
+    <t>this is 73</t>
+  </si>
+  <si>
+    <t>this is 74</t>
+  </si>
+  <si>
+    <t>this is 75</t>
+  </si>
+  <si>
+    <t>this is 76</t>
+  </si>
+  <si>
+    <t>this is 77</t>
+  </si>
+  <si>
+    <t>this is 78</t>
+  </si>
+  <si>
+    <t>this is 79</t>
+  </si>
+  <si>
+    <t>this is 80</t>
+  </si>
+  <si>
+    <t>this is 81</t>
+  </si>
+  <si>
+    <t>this is 82</t>
+  </si>
+  <si>
+    <t>this is 83</t>
+  </si>
+  <si>
+    <t>this is 84</t>
+  </si>
+  <si>
+    <t>this is 85</t>
+  </si>
+  <si>
+    <t>this is 86</t>
+  </si>
+  <si>
+    <t>this is 87</t>
+  </si>
+  <si>
+    <t>this is 88</t>
+  </si>
+  <si>
+    <t>this is 89</t>
+  </si>
+  <si>
+    <t>this is 90</t>
+  </si>
+  <si>
+    <t>this is 91</t>
+  </si>
+  <si>
+    <t>this is 92</t>
+  </si>
+  <si>
+    <t>this is 93</t>
+  </si>
+  <si>
+    <t>this is 94</t>
+  </si>
+  <si>
+    <t>this is 95</t>
+  </si>
+  <si>
+    <t>this is 96</t>
+  </si>
+  <si>
+    <t>this is 97</t>
+  </si>
+  <si>
+    <t>this is 98</t>
+  </si>
+  <si>
+    <t>this is 99</t>
+  </si>
+  <si>
+    <t>Nwq1</t>
+  </si>
+  <si>
+    <t>Nwq2</t>
+  </si>
+  <si>
+    <t>Nwq3</t>
+  </si>
+  <si>
+    <t>Nwq4</t>
+  </si>
+  <si>
+    <t>Nwq5</t>
+  </si>
+  <si>
+    <t>Nwq6</t>
+  </si>
+  <si>
+    <t>Nwq7</t>
+  </si>
+  <si>
+    <t>Nwq8</t>
+  </si>
+  <si>
+    <t>Nwq9</t>
+  </si>
+  <si>
+    <t>Nwq10</t>
+  </si>
+  <si>
+    <t>Nwq11</t>
+  </si>
+  <si>
+    <t>Nwq12</t>
+  </si>
+  <si>
+    <t>Nwq13</t>
+  </si>
+  <si>
+    <t>Nwq14</t>
+  </si>
+  <si>
+    <t>Nwq15</t>
+  </si>
+  <si>
+    <t>Nwq16</t>
+  </si>
+  <si>
+    <t>Nwq17</t>
+  </si>
+  <si>
+    <t>Nwq18</t>
+  </si>
+  <si>
+    <t>Nwq19</t>
+  </si>
+  <si>
+    <t>Nwq20</t>
+  </si>
+  <si>
+    <t>Nwq21</t>
+  </si>
+  <si>
+    <t>Nwq22</t>
+  </si>
+  <si>
+    <t>Nwq23</t>
+  </si>
+  <si>
+    <t>Nwq24</t>
+  </si>
+  <si>
+    <t>Nwq25</t>
+  </si>
+  <si>
+    <t>Nwq26</t>
+  </si>
+  <si>
+    <t>Nwq27</t>
+  </si>
+  <si>
+    <t>Nwq28</t>
+  </si>
+  <si>
+    <t>Nwq29</t>
+  </si>
+  <si>
+    <t>Nwq30</t>
+  </si>
+  <si>
+    <t>Nwq31</t>
+  </si>
+  <si>
+    <t>Nwq32</t>
+  </si>
+  <si>
+    <t>Nwq33</t>
+  </si>
+  <si>
+    <t>Nwq34</t>
+  </si>
+  <si>
+    <t>Nwq35</t>
+  </si>
+  <si>
+    <t>Nwq36</t>
+  </si>
+  <si>
+    <t>Nwq37</t>
+  </si>
+  <si>
+    <t>Nwq38</t>
+  </si>
+  <si>
+    <t>Nwq39</t>
+  </si>
+  <si>
+    <t>Nwq40</t>
+  </si>
+  <si>
+    <t>Nwq41</t>
+  </si>
+  <si>
+    <t>Nwq42</t>
+  </si>
+  <si>
+    <t>Nwq43</t>
+  </si>
+  <si>
+    <t>Nwq44</t>
+  </si>
+  <si>
+    <t>Nwq45</t>
+  </si>
+  <si>
+    <t>Nwq46</t>
+  </si>
+  <si>
+    <t>Nwq47</t>
+  </si>
+  <si>
+    <t>Nwq48</t>
+  </si>
+  <si>
+    <t>Nwq49</t>
+  </si>
+  <si>
+    <t>Nwq50</t>
+  </si>
+  <si>
+    <t>Nwq51</t>
+  </si>
+  <si>
+    <t>Nwq52</t>
+  </si>
+  <si>
+    <t>Nwq53</t>
+  </si>
+  <si>
+    <t>Nwq54</t>
+  </si>
+  <si>
+    <t>Nwq55</t>
+  </si>
+  <si>
+    <t>Nwq56</t>
+  </si>
+  <si>
+    <t>Nwq57</t>
+  </si>
+  <si>
+    <t>Nwq58</t>
+  </si>
+  <si>
+    <t>Nwq59</t>
+  </si>
+  <si>
+    <t>Nwq60</t>
+  </si>
+  <si>
+    <t>Nwq61</t>
+  </si>
+  <si>
+    <t>Nwq62</t>
+  </si>
+  <si>
+    <t>Nwq63</t>
+  </si>
+  <si>
+    <t>Nwq64</t>
+  </si>
+  <si>
+    <t>Nwq65</t>
+  </si>
+  <si>
+    <t>Nwq66</t>
+  </si>
+  <si>
+    <t>Nwq67</t>
+  </si>
+  <si>
+    <t>Nwq68</t>
+  </si>
+  <si>
+    <t>Nwq69</t>
+  </si>
+  <si>
+    <t>Nwq70</t>
+  </si>
+  <si>
+    <t>Nwq71</t>
+  </si>
+  <si>
+    <t>Nwq72</t>
+  </si>
+  <si>
+    <t>Nwq73</t>
+  </si>
+  <si>
+    <t>Nwq74</t>
+  </si>
+  <si>
+    <t>Nwq75</t>
+  </si>
+  <si>
+    <t>Nwq76</t>
+  </si>
+  <si>
+    <t>Nwq77</t>
+  </si>
+  <si>
+    <t>Nwq78</t>
+  </si>
+  <si>
+    <t>Nwq79</t>
+  </si>
+  <si>
+    <t>Nwq80</t>
+  </si>
+  <si>
+    <t>Nwq81</t>
+  </si>
+  <si>
+    <t>Nwq82</t>
+  </si>
+  <si>
+    <t>Nwq83</t>
+  </si>
+  <si>
+    <t>Nwq84</t>
+  </si>
+  <si>
+    <t>Nwq85</t>
+  </si>
+  <si>
+    <t>Nwq86</t>
+  </si>
+  <si>
+    <t>Nwq87</t>
+  </si>
+  <si>
+    <t>Nwq88</t>
+  </si>
+  <si>
+    <t>Nwq89</t>
+  </si>
+  <si>
+    <t>Nwq90</t>
+  </si>
+  <si>
+    <t>Nwq91</t>
+  </si>
+  <si>
+    <t>Nwq92</t>
+  </si>
+  <si>
+    <t>Nwq93</t>
+  </si>
+  <si>
+    <t>Nwq94</t>
+  </si>
+  <si>
+    <t>Nwq95</t>
+  </si>
+  <si>
+    <t>Nwq96</t>
+  </si>
+  <si>
+    <t>Nwq97</t>
+  </si>
+  <si>
+    <t>Nwq98</t>
+  </si>
+  <si>
+    <t>Nwq99</t>
+  </si>
+  <si>
+    <t>Groupname</t>
+  </si>
+  <si>
+    <t>PerformerWorkbookFilter</t>
+  </si>
+  <si>
+    <t>PerformerFilter</t>
+  </si>
+  <si>
+    <t>forfilter</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>yearly</t>
+  </si>
+  <si>
+    <t>daily pinpoint</t>
+  </si>
+  <si>
+    <t>weekly pinpoint</t>
+  </si>
+  <si>
+    <t>monthly pinpoint</t>
+  </si>
+  <si>
+    <t>yearly pinpoint</t>
+  </si>
+  <si>
+    <t>Grpsort1</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>Grpsort2</t>
+  </si>
+  <si>
+    <t>Grpsort3</t>
+  </si>
+  <si>
+    <t>This is description</t>
+  </si>
+  <si>
+    <t>SortPinpointInworkbook</t>
+  </si>
+  <si>
+    <t>SortPinpointInWorkbook</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SortPinpointInWorkbookId</t>
+  </si>
+  <si>
+    <t>SortPinpointInWorkbookName</t>
+  </si>
+  <si>
+    <t>SortPinpointInWorkbookID</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>forsort</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>sortPinpointInWorkbookByID</t>
+  </si>
+  <si>
+    <t>ChangePerformerFromChartTable</t>
+  </si>
+  <si>
+    <t>charttable</t>
+  </si>
+  <si>
+    <t>changeperformer2</t>
+  </si>
+  <si>
+    <t>changeperformer1</t>
+  </si>
+  <si>
+    <t>ChangePerformerfromChartTab</t>
+  </si>
+  <si>
+    <t>changeperformerfromchartTab1</t>
+  </si>
+  <si>
+    <t>changeperformerfromchartTab2</t>
+  </si>
+  <si>
+    <t>ChangePerformerFromChartTab</t>
+  </si>
+  <si>
+    <t>changeperform</t>
+  </si>
+  <si>
+    <t>ChangePerformerfromWorksheet</t>
+  </si>
+  <si>
+    <t>ChangePerformerfromWorksheet1</t>
+  </si>
+  <si>
+    <t>ChangePerformerfromWorksheet2</t>
+  </si>
+  <si>
+    <t>ChangePerformerfromProfileTab</t>
+  </si>
+  <si>
+    <t>ProfileTabChangePerformer</t>
+  </si>
+  <si>
+    <t>TabProfileChangePerformer</t>
+  </si>
+  <si>
+    <t>ChangePerformerfromPinpointTab</t>
+  </si>
+  <si>
+    <t>PinpointTabChangePerformer</t>
+  </si>
+  <si>
+    <t>TabPinpointChangePerformer</t>
+  </si>
+  <si>
+    <t>ChangePerformerfromConditionTab</t>
+  </si>
+  <si>
+    <t>ConditionTabChangePerformer</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>TabConditionChangePerformer</t>
+  </si>
+  <si>
+    <t>ChangePerformerfromAccessControlTab</t>
+  </si>
+  <si>
+    <t>AccessTabChangePerformer</t>
+  </si>
+  <si>
+    <t>TabAccessChangePerformer</t>
+  </si>
+  <si>
+    <t>testingapptrial+firefoxsmoke@gmail.com</t>
+  </si>
+  <si>
+    <t>123456qwert</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Account Type(Organization/Personal)</t>
+  </si>
+  <si>
+    <t>pinpoint3</t>
+  </si>
+  <si>
+    <t>Creates Pinpoint to Group3</t>
+  </si>
+  <si>
+    <t>adds pinpoint3</t>
+  </si>
+  <si>
+    <t>SetPerformerDefaultForPinpoint</t>
+  </si>
+  <si>
+    <t>performer</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>SetPerformerDefaultPinpoint</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>DUAMx</t>
+  </si>
+  <si>
+    <t>DUAMi</t>
+  </si>
+  <si>
+    <t>LAMx</t>
+  </si>
+  <si>
+    <t>LAMi</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +3225,7 @@
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1560,6 +3286,13 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1868,10 +3601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1881,14 +3614,15 @@
     <col min="3" max="3" width="40.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1904,30 +3638,36 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>317</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>320</v>
+      <c r="C3" s="32" t="s">
+        <v>1007</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>321</v>
+        <v>1008</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -1935,7 +3675,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="17" t="s">
         <v>320</v>
       </c>
@@ -1943,54 +3683,3472 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="25" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B12" s="12" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>385</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="http://dev.chartlytics.com"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A6:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="15" max="16" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D6" t="s">
+        <v>504</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>505</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>506</v>
+      </c>
+      <c r="I6" t="s">
+        <v>507</v>
+      </c>
+      <c r="J6" t="s">
+        <v>508</v>
+      </c>
+      <c r="K6" t="s">
+        <v>437</v>
+      </c>
+      <c r="L6" t="s">
+        <v>509</v>
+      </c>
+      <c r="M6" t="s">
+        <v>510</v>
+      </c>
+      <c r="N6" t="s">
+        <v>511</v>
+      </c>
+      <c r="O6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="12" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:Q11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="37" t="s">
+        <v>549</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="G2" s="37" t="s">
+        <v>554</v>
+      </c>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="12">
+        <v>16</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="12">
+        <v>17</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="12">
+        <v>18</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="12">
+        <v>19</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="12">
+        <v>20</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="12">
+        <v>21</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="12">
+        <v>22</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="12">
+        <v>23</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="12">
+        <v>24</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="12">
+        <v>25</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="12">
+        <v>26</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="12">
+        <v>27</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="12">
+        <v>28</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="12">
+        <v>29</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="12">
+        <v>30</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="12">
+        <v>31</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="12">
+        <v>32</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="12">
+        <v>33</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="12">
+        <v>34</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="12">
+        <v>35</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="12">
+        <v>36</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="12">
+        <v>37</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="12">
+        <v>38</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>629</v>
+      </c>
+      <c r="B7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="12" t="s">
+        <v>640</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C100"/>
+  <sheetViews>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>756</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>764</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>766</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>770</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>772</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>778</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="12" t="s">
+        <v>696</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>799</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>800</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>802</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>805</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>828</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="12" t="s">
+        <v>748</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>851</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>953</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2144,16 +7302,16 @@
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="2" t="s">
         <v>33</v>
       </c>
@@ -2387,6 +7545,420 @@
       </c>
       <c r="D29" s="12" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="7" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="7" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="12" t="s">
+        <v>956</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="7" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="12" t="s">
+        <v>971</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="7" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="12" t="s">
+        <v>987</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="34" t="s">
+        <v>988</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="12" t="s">
+        <v>992</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="12" t="s">
+        <v>993</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="7" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="12" t="s">
+        <v>995</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="12" t="s">
+        <v>996</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="7" t="s">
+        <v>997</v>
+      </c>
+      <c r="C54" s="12"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="12" t="s">
+        <v>998</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="12" t="s">
+        <v>999</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="7" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="12" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="7" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="12" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C63" s="12"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="12" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="12" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2404,7 +7976,7 @@
   <dimension ref="A1:R229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2423,31 +7995,31 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="1:18">
       <c r="B4" s="8" t="s">
@@ -15115,34 +20687,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F5"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
@@ -15222,174 +20795,1165 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="I5" s="34" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
+      <c r="J5" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="B7" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="34" t="s">
         <v>335</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="G5" s="12" t="s">
+      <c r="F7" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="G7" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="J5" s="12" t="s">
+      <c r="H7" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="J7" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K7" s="34" t="s">
         <v>350</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
+      <c r="L7" s="34" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="B8" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="J6" s="12" t="s">
+      <c r="H8" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="J8" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K8" s="34" t="s">
         <v>350</v>
       </c>
-      <c r="L6" s="12" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="L8" s="34" t="s">
         <v>392</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>3</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="7"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>572</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>575</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="7" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>958</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>957</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>959</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>957</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>960</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>957</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>961</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>957</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="7" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>973</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>974</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="7" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="12" t="s">
+        <v>977</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>978</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="12" t="s">
+        <v>977</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>978</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="7" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="12" t="s">
+        <v>982</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>985</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>983</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="12" t="s">
+        <v>982</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>983</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="12" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -15405,7 +21969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -15603,15 +22167,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -15669,57 +22233,73 @@
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="12"/>
+      <c r="A5" s="7" t="s">
+        <v>394</v>
+      </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
     </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>401</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>402</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>406</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="12" t="s">
@@ -15729,59 +22309,59 @@
         <v>42</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>312</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>44</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34" t="s">
-        <v>409</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34" t="s">
+      <c r="A10" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34" t="s">
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
@@ -15794,13 +22374,13 @@
         <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E11" t="s">
         <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G11" t="s">
         <v>60</v>
@@ -15821,7 +22401,7 @@
         <v>64</v>
       </c>
       <c r="M11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N11" t="s">
         <v>66</v>
@@ -15890,20 +22470,178 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="32" t="s">
-        <v>413</v>
-      </c>
-      <c r="B14" s="32"/>
+      <c r="A14" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="B14" s="37"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="12" t="s">
-        <v>446</v>
-      </c>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="12"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="12"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="33" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="33" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="33" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="12" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="12" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="12" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="7" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="12" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="12" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="12" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -15920,15 +22658,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
@@ -15962,11 +22700,22 @@
         <v>364</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="12" t="s">
+        <v>954</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>656</v>
+      </c>
+    </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="40"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
@@ -16003,11 +22752,11 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
@@ -16028,13 +22777,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>370</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>371</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>362</v>
@@ -16044,10 +22793,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="40" t="s">
         <v>360</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="40"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
@@ -16062,13 +22811,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>373</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -16084,13 +22833,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>376</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -16118,13 +22867,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>378</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>380</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>362</v>
@@ -16133,53 +22882,56 @@
         <v>359</v>
       </c>
     </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2"/>
+    </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>438</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="7" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>439</v>
-      </c>
-      <c r="B34" t="s">
-        <v>440</v>
-      </c>
-      <c r="C34" t="s">
-        <v>441</v>
+      <c r="A34" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>442</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="12" t="s">
-        <v>430</v>
+        <v>601</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+        <v>605</v>
+      </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>3</v>
+        <v>523</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>331</v>
@@ -16189,24 +22941,146 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="30" t="s">
-        <v>443</v>
+      <c r="A41" s="12" t="s">
+        <v>1012</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>444</v>
+        <v>606</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>445</v>
+        <v>602</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
-        <v>414</v>
-      </c>
+      <c r="A43" s="2"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="12" t="s">
-        <v>448</v>
+      <c r="A44" s="12"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>966</v>
+      </c>
+      <c r="B139" t="s">
+        <v>970</v>
+      </c>
+      <c r="C139" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>968</v>
+      </c>
+      <c r="B140" t="s">
+        <v>970</v>
+      </c>
+      <c r="C140" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>969</v>
+      </c>
+      <c r="B141" t="s">
+        <v>970</v>
+      </c>
+      <c r="C141" t="s">
+        <v>967</v>
       </c>
     </row>
   </sheetData>
@@ -16224,8 +23098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16263,7 +23137,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
@@ -16289,7 +23163,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -16299,37 +23173,37 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="D8" s="26" t="s">
         <v>398</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>400</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>302</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G8" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="I8" s="26" t="s">
         <v>401</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="J8" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="J8" s="26" t="s">
+      <c r="K8" s="26" t="s">
         <v>404</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>406</v>
       </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
@@ -16342,59 +23216,59 @@
         <v>42</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>312</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>44</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34" t="s">
-        <v>409</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34" t="s">
+      <c r="A10" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34" t="s">
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
@@ -16407,13 +23281,13 @@
         <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E11" t="s">
         <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G11" t="s">
         <v>60</v>
@@ -16434,7 +23308,7 @@
         <v>64</v>
       </c>
       <c r="M11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N11" t="s">
         <v>66</v>
@@ -16504,46 +23378,46 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B14" s="28"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E19" t="s">
         <v>426</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>427</v>
-      </c>
-      <c r="F19" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -16551,13 +23425,13 @@
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>313</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E20">
         <v>17</v>
@@ -16571,10 +23445,10 @@
         <v>1.0416666666666667E-4</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>26</v>
@@ -16591,13 +23465,13 @@
         <v>9.0277777777777784E-4</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>312</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E22">
         <v>46</v>
@@ -16611,13 +23485,13 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="B23" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>433</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>434</v>
-      </c>
       <c r="D23" s="30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E23">
         <v>0.5</v>
@@ -16631,10 +23505,10 @@
         <v>9.2592592592592585E-4</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>44</v>
@@ -16660,12 +23534,827 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N28" sqref="N26:P28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="37" t="s">
+        <v>406</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37" t="s">
+        <v>407</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="12" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="12" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="12" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="12" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="12" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:Q18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sauce-project/src/test/java/com/yourcompany/dataexcel.xlsx
+++ b/sauce-project/src/test/java/com/yourcompany/dataexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13515" windowHeight="6210" tabRatio="710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14610" windowHeight="4515" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="4" r:id="rId1"/>
@@ -15,19 +15,15 @@
     <sheet name="assignpinpoint" sheetId="6" r:id="rId6"/>
     <sheet name="group" sheetId="7" r:id="rId7"/>
     <sheet name="frequencytest" sheetId="8" r:id="rId8"/>
-    <sheet name="charts" sheetId="11" r:id="rId9"/>
-    <sheet name="organization" sheetId="12" r:id="rId10"/>
-    <sheet name="OverwritePinValue" sheetId="13" r:id="rId11"/>
-    <sheet name="FACC" sheetId="14" r:id="rId12"/>
-    <sheet name="Category" sheetId="15" r:id="rId13"/>
-    <sheet name="Test" sheetId="16" r:id="rId14"/>
+    <sheet name="Sheet5" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet6" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6211" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4550" uniqueCount="449">
   <si>
     <t>BaseUrl</t>
   </si>
@@ -1137,6 +1133,9 @@
     <t>NewDelhi</t>
   </si>
   <si>
+    <t>AddUsrGrp</t>
+  </si>
+  <si>
     <t>Test add user through access control</t>
   </si>
   <si>
@@ -1161,6 +1160,9 @@
     <t>Kolkata</t>
   </si>
   <si>
+    <t>DelUsrGroup</t>
+  </si>
+  <si>
     <t>Test delete the group user</t>
   </si>
   <si>
@@ -1275,9 +1277,6 @@
     <t>hard</t>
   </si>
   <si>
-    <t>- do work hard</t>
-  </si>
-  <si>
     <t>Create_Category</t>
   </si>
   <si>
@@ -1341,490 +1340,13 @@
     <t>180</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Fifteen</t>
-  </si>
-  <si>
-    <t>Measure of chart</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>2015/12/8</t>
-  </si>
-  <si>
-    <t>2015/12/9</t>
-  </si>
-  <si>
-    <t>2015/12/10</t>
-  </si>
-  <si>
-    <t>2015/12/11</t>
-  </si>
-  <si>
-    <t>2015/12/12</t>
-  </si>
-  <si>
-    <t>2015/12/14</t>
-  </si>
-  <si>
-    <t>2015/12/15</t>
-  </si>
-  <si>
-    <t>2015/12/16</t>
-  </si>
-  <si>
-    <t>2015/12/17</t>
-  </si>
-  <si>
-    <t>2015/12/18</t>
-  </si>
-  <si>
-    <t>2015/12/19</t>
-  </si>
-  <si>
-    <t>2015/12/21</t>
-  </si>
-  <si>
-    <t>2015/12/22</t>
-  </si>
-  <si>
-    <t>2015/12/23</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>fifteen</t>
-  </si>
-  <si>
-    <t>ChartfifteenMeasurePer</t>
-  </si>
-  <si>
-    <t>ChartfifteenPinpointMeasurePer</t>
-  </si>
-  <si>
-    <t>Create Pinpoint</t>
-  </si>
-  <si>
-    <t>Sensory In</t>
-  </si>
-  <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>CountTime</t>
-  </si>
-  <si>
-    <t>Day to Aim</t>
-  </si>
-  <si>
-    <t>Across Days</t>
-  </si>
-  <si>
-    <t>Fifteen Measure</t>
-  </si>
-  <si>
-    <t>pinpoint</t>
-  </si>
-  <si>
-    <t>Search Pinpoint Name</t>
-  </si>
-  <si>
-    <t>Create chart using measurement</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>Count Only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First </t>
-  </si>
-  <si>
-    <t>GeoMean</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Measurement Recurrance</t>
-  </si>
-  <si>
-    <t>2015/12/24</t>
-  </si>
-  <si>
-    <t>Edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measure </t>
-  </si>
-  <si>
-    <t>On worksheet</t>
-  </si>
-  <si>
-    <t>Measure</t>
-  </si>
-  <si>
-    <t>In timeline</t>
-  </si>
-  <si>
-    <t>EditMeasruePerwork</t>
-  </si>
-  <si>
-    <t>EditMeasurePerTime</t>
-  </si>
-  <si>
-    <t>Edit Measure</t>
-  </si>
-  <si>
-    <t>pinpoint timeline</t>
-  </si>
-  <si>
-    <t>Performer worksheet</t>
-  </si>
-  <si>
-    <t>ArchiveChart</t>
-  </si>
-  <si>
-    <t>Archive</t>
-  </si>
-  <si>
-    <t>Chart</t>
-  </si>
-  <si>
-    <t>in timeline</t>
-  </si>
-  <si>
-    <t>Aims</t>
-  </si>
-  <si>
-    <t>Counttym</t>
-  </si>
-  <si>
-    <t>Axis</t>
-  </si>
-  <si>
-    <t>Grid Line</t>
-  </si>
-  <si>
-    <t>Bounce</t>
-  </si>
-  <si>
-    <t>Celeration</t>
-  </si>
-  <si>
-    <t>Connecting</t>
-  </si>
-  <si>
-    <t>Legend</t>
-  </si>
-  <si>
-    <t>Extend celeration</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>Record ceiling</t>
-  </si>
-  <si>
-    <t>Start Date line</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>HistoryChartPer</t>
-  </si>
-  <si>
-    <t>View</t>
-  </si>
-  <si>
-    <t>of chart</t>
-  </si>
-  <si>
-    <t>DAMx</t>
-  </si>
-  <si>
-    <t>DAMi</t>
-  </si>
-  <si>
-    <t>Overwrite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assign pinpoint overwrite </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name </t>
-  </si>
-  <si>
-    <t>Sen IN</t>
-  </si>
-  <si>
-    <t>Phy OUT</t>
-  </si>
-  <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>Count time</t>
-  </si>
-  <si>
-    <t>DTA</t>
-  </si>
-  <si>
-    <t>write</t>
-  </si>
-  <si>
-    <t>Search Pinpoint</t>
-  </si>
-  <si>
-    <t>over</t>
-  </si>
-  <si>
-    <t>Overwrite Assign pinpoint value</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Pinpoint goal</t>
-  </si>
-  <si>
-    <t>AggregateType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max </t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>pin value</t>
-  </si>
-  <si>
-    <t>Delete Pinpoint Associate data Gone from the chart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create pinpoint </t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
-    <t>AssociateDataGone</t>
-  </si>
-  <si>
-    <t>DeletePinpointAssociateChartGone</t>
-  </si>
-  <si>
-    <t>AssociatePerformer1</t>
-  </si>
-  <si>
-    <t>AssociatePerformer2</t>
-  </si>
-  <si>
-    <t>DeletePinpointAssociatePerformer</t>
-  </si>
-  <si>
-    <t>delete pinpoint</t>
-  </si>
-  <si>
-    <t>Functioan Analysis Celeration Chart</t>
-  </si>
-  <si>
-    <t>TestCase</t>
-  </si>
-  <si>
-    <t>Sen In</t>
-  </si>
-  <si>
-    <t>Phy Out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">object </t>
-  </si>
-  <si>
-    <t>Selection of condition for FA</t>
-  </si>
-  <si>
-    <t>Default TT</t>
-  </si>
-  <si>
-    <t>No of TT</t>
-  </si>
-  <si>
-    <t>Alone</t>
-  </si>
-  <si>
-    <t>Attention</t>
-  </si>
-  <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>Free Play</t>
-  </si>
-  <si>
-    <t>Tangile</t>
-  </si>
-  <si>
-    <t>User defined</t>
-  </si>
-  <si>
-    <t>verify</t>
-  </si>
-  <si>
-    <t>comfirm</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>facc</t>
-  </si>
-  <si>
-    <t>Edit Pinpoint Name and default value</t>
-  </si>
-  <si>
-    <t>Create pinpoint</t>
-  </si>
-  <si>
-    <t>edit</t>
-  </si>
-  <si>
-    <t>namevalue</t>
-  </si>
-  <si>
-    <t>Edit pinpoint name or value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinpoint </t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>ChangeTheCustomerOrderofPinpointInPerformerPinpoint</t>
-  </si>
-  <si>
-    <t>CustomPerformer</t>
-  </si>
-  <si>
-    <t>CustomPerformer1</t>
-  </si>
-  <si>
-    <t>CustomPerformer2</t>
-  </si>
-  <si>
-    <t>second</t>
-  </si>
-  <si>
-    <t>custom</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>VerifyAggregateTypeInViewChart</t>
-  </si>
-  <si>
-    <t>verifyAggPerformer</t>
-  </si>
-  <si>
-    <t>VerifyAggPinpoint1</t>
-  </si>
-  <si>
-    <t>aggregate</t>
-  </si>
-  <si>
-    <t>inviewchart</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Create Category</t>
-  </si>
-  <si>
-    <t>CatName</t>
-  </si>
-  <si>
-    <t>Sub Catgory Name</t>
-  </si>
-  <si>
-    <t>Alebgra</t>
-  </si>
-  <si>
-    <t>Assign Performer to Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AssignPerformerToGroup</t>
-  </si>
-  <si>
-    <t>This is test for assign performer To group</t>
+    <t>Assign Performer To Group</t>
+  </si>
+  <si>
+    <t>AssignPerformerToGroup</t>
+  </si>
+  <si>
+    <t>This is test to assign performer to group</t>
   </si>
   <si>
     <t>Lucknow</t>
@@ -1833,1270 +1355,22 @@
     <t>Performer Name</t>
   </si>
   <si>
-    <t>GroupPerformer</t>
+    <t>AssignPinpointToGroup</t>
+  </si>
+  <si>
+    <t>This is test to assign pinpoint to group</t>
   </si>
   <si>
     <t>Agra</t>
   </si>
   <si>
-    <t>AddPinpointToGroup</t>
-  </si>
-  <si>
-    <t>togroup</t>
-  </si>
-  <si>
-    <t>Assign Pinpoint to Group</t>
-  </si>
-  <si>
-    <t>This is test for assign pinpoint To group</t>
-  </si>
-  <si>
-    <t>adds</t>
-  </si>
-  <si>
-    <t>Add Pinpoint to Group</t>
-  </si>
-  <si>
-    <t>AddUsrGrps</t>
-  </si>
-  <si>
-    <t>DelUsrGroupss</t>
-  </si>
-  <si>
-    <t>VerifyAggregareType</t>
-  </si>
-  <si>
-    <t>PerformerforAgg</t>
-  </si>
-  <si>
-    <t>VerifyAggreagatetype</t>
-  </si>
-  <si>
-    <t>verifyAggregateType</t>
-  </si>
-  <si>
-    <t>VerifyAggreate Type</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>aggregate type</t>
-  </si>
-  <si>
-    <t>Create Pinpoint in Category</t>
-  </si>
-  <si>
-    <t>CreatePinpoinInCategory</t>
-  </si>
-  <si>
-    <t>Create pinpoint in category</t>
-  </si>
-  <si>
-    <t>Pin</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>createpinpoint</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>Create SubCategory in Category</t>
-  </si>
-  <si>
-    <t>Netword</t>
-  </si>
-  <si>
-    <t>Ubuntu</t>
-  </si>
-  <si>
-    <t>Linux</t>
-  </si>
-  <si>
-    <t>Delete Pinpoint from category</t>
-  </si>
-  <si>
-    <t>Delete pinpoint from category</t>
-  </si>
-  <si>
-    <t>DeletePinFromCate</t>
-  </si>
-  <si>
-    <t>deletepin</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>Knowledge</t>
-  </si>
-  <si>
-    <t>Delete Category which has pin</t>
-  </si>
-  <si>
-    <t>DeleteCategoryWhichHasPin</t>
-  </si>
-  <si>
-    <t>whichhas</t>
-  </si>
-  <si>
-    <t>pin</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>deletcate</t>
-  </si>
-  <si>
-    <t>Group Sort</t>
-  </si>
-  <si>
-    <t>A_Group</t>
-  </si>
-  <si>
-    <t>a_group</t>
-  </si>
-  <si>
-    <t>Z_Group</t>
-  </si>
-  <si>
-    <t>z_group</t>
-  </si>
-  <si>
-    <t>1_Group</t>
-  </si>
-  <si>
-    <t>9_group</t>
-  </si>
-  <si>
-    <t>A group for sort</t>
-  </si>
-  <si>
-    <t>Z group for sort</t>
-  </si>
-  <si>
-    <t>a group for sort</t>
-  </si>
-  <si>
-    <t>z group for sort</t>
-  </si>
-  <si>
-    <t>1 group for sort</t>
-  </si>
-  <si>
-    <t>9 group for sort</t>
-  </si>
-  <si>
-    <t>This is group</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Gp1</t>
-  </si>
-  <si>
-    <t>Gp2</t>
-  </si>
-  <si>
-    <t>Gp3</t>
-  </si>
-  <si>
-    <t>Gp4</t>
-  </si>
-  <si>
-    <t>Gp5</t>
-  </si>
-  <si>
-    <t>Gp6</t>
-  </si>
-  <si>
-    <t>Gp7</t>
-  </si>
-  <si>
-    <t>Gp8</t>
-  </si>
-  <si>
-    <t>Gp9</t>
-  </si>
-  <si>
-    <t>Gp10</t>
-  </si>
-  <si>
-    <t>Gp11</t>
-  </si>
-  <si>
-    <t>Gp12</t>
-  </si>
-  <si>
-    <t>Gp13</t>
-  </si>
-  <si>
-    <t>Gp14</t>
-  </si>
-  <si>
-    <t>Gp15</t>
-  </si>
-  <si>
-    <t>Gp16</t>
-  </si>
-  <si>
-    <t>Gp17</t>
-  </si>
-  <si>
-    <t>Gp18</t>
-  </si>
-  <si>
-    <t>Gp19</t>
-  </si>
-  <si>
-    <t>Gp20</t>
-  </si>
-  <si>
-    <t>Gp21</t>
-  </si>
-  <si>
-    <t>Gp22</t>
-  </si>
-  <si>
-    <t>Gp23</t>
-  </si>
-  <si>
-    <t>Gp24</t>
-  </si>
-  <si>
-    <t>Gp25</t>
-  </si>
-  <si>
-    <t>Gp26</t>
-  </si>
-  <si>
-    <t>Gp27</t>
-  </si>
-  <si>
-    <t>Gp28</t>
-  </si>
-  <si>
-    <t>Gp29</t>
-  </si>
-  <si>
-    <t>Gp30</t>
-  </si>
-  <si>
-    <t>Gp31</t>
-  </si>
-  <si>
-    <t>Gp32</t>
-  </si>
-  <si>
-    <t>Gp33</t>
-  </si>
-  <si>
-    <t>Gp34</t>
-  </si>
-  <si>
-    <t>Gp35</t>
-  </si>
-  <si>
-    <t>Gp36</t>
-  </si>
-  <si>
-    <t>Gp37</t>
-  </si>
-  <si>
-    <t>Gp38</t>
-  </si>
-  <si>
-    <t>Gp39</t>
-  </si>
-  <si>
-    <t>Gp40</t>
-  </si>
-  <si>
-    <t>Gp41</t>
-  </si>
-  <si>
-    <t>Gp42</t>
-  </si>
-  <si>
-    <t>Gp43</t>
-  </si>
-  <si>
-    <t>Gp44</t>
-  </si>
-  <si>
-    <t>Gp45</t>
-  </si>
-  <si>
-    <t>Gp46</t>
-  </si>
-  <si>
-    <t>Gp47</t>
-  </si>
-  <si>
-    <t>Gp48</t>
-  </si>
-  <si>
-    <t>Gp49</t>
-  </si>
-  <si>
-    <t>Gp50</t>
-  </si>
-  <si>
-    <t>Gp51</t>
-  </si>
-  <si>
-    <t>Gp52</t>
-  </si>
-  <si>
-    <t>Gp53</t>
-  </si>
-  <si>
-    <t>Gp54</t>
-  </si>
-  <si>
-    <t>Gp55</t>
-  </si>
-  <si>
-    <t>Gp56</t>
-  </si>
-  <si>
-    <t>Gp57</t>
-  </si>
-  <si>
-    <t>Gp58</t>
-  </si>
-  <si>
-    <t>Gp59</t>
-  </si>
-  <si>
-    <t>Gp60</t>
-  </si>
-  <si>
-    <t>Gp61</t>
-  </si>
-  <si>
-    <t>Gp62</t>
-  </si>
-  <si>
-    <t>Gp63</t>
-  </si>
-  <si>
-    <t>Gp64</t>
-  </si>
-  <si>
-    <t>Gp65</t>
-  </si>
-  <si>
-    <t>Gp66</t>
-  </si>
-  <si>
-    <t>Gp67</t>
-  </si>
-  <si>
-    <t>Gp68</t>
-  </si>
-  <si>
-    <t>Gp69</t>
-  </si>
-  <si>
-    <t>Gp70</t>
-  </si>
-  <si>
-    <t>Gp71</t>
-  </si>
-  <si>
-    <t>Gp72</t>
-  </si>
-  <si>
-    <t>Gp73</t>
-  </si>
-  <si>
-    <t>Gp74</t>
-  </si>
-  <si>
-    <t>Gp75</t>
-  </si>
-  <si>
-    <t>Gp76</t>
-  </si>
-  <si>
-    <t>Gp77</t>
-  </si>
-  <si>
-    <t>Gp78</t>
-  </si>
-  <si>
-    <t>Gp79</t>
-  </si>
-  <si>
-    <t>Gp80</t>
-  </si>
-  <si>
-    <t>Gp81</t>
-  </si>
-  <si>
-    <t>Gp82</t>
-  </si>
-  <si>
-    <t>Gp83</t>
-  </si>
-  <si>
-    <t>Gp84</t>
-  </si>
-  <si>
-    <t>Gp85</t>
-  </si>
-  <si>
-    <t>Gp86</t>
-  </si>
-  <si>
-    <t>Gp87</t>
-  </si>
-  <si>
-    <t>Gp88</t>
-  </si>
-  <si>
-    <t>Gp89</t>
-  </si>
-  <si>
-    <t>Gp90</t>
-  </si>
-  <si>
-    <t>Gp91</t>
-  </si>
-  <si>
-    <t>Gp92</t>
-  </si>
-  <si>
-    <t>Gp93</t>
-  </si>
-  <si>
-    <t>Gp94</t>
-  </si>
-  <si>
-    <t>Gp95</t>
-  </si>
-  <si>
-    <t>Gp96</t>
-  </si>
-  <si>
-    <t>Gp97</t>
-  </si>
-  <si>
-    <t>Gp98</t>
-  </si>
-  <si>
-    <t>Gp99</t>
-  </si>
-  <si>
-    <t>this is 1</t>
-  </si>
-  <si>
-    <t>this is 2</t>
-  </si>
-  <si>
-    <t>this is 3</t>
-  </si>
-  <si>
-    <t>this is 4</t>
-  </si>
-  <si>
-    <t>this is 5</t>
-  </si>
-  <si>
-    <t>this is 6</t>
-  </si>
-  <si>
-    <t>this is 7</t>
-  </si>
-  <si>
-    <t>this is 8</t>
-  </si>
-  <si>
-    <t>this is 9</t>
-  </si>
-  <si>
-    <t>this is 10</t>
-  </si>
-  <si>
-    <t>this is 11</t>
-  </si>
-  <si>
-    <t>this is 12</t>
-  </si>
-  <si>
-    <t>this is 13</t>
-  </si>
-  <si>
-    <t>this is 14</t>
-  </si>
-  <si>
-    <t>this is 15</t>
-  </si>
-  <si>
-    <t>this is 16</t>
-  </si>
-  <si>
-    <t>this is 17</t>
-  </si>
-  <si>
-    <t>this is 18</t>
-  </si>
-  <si>
-    <t>this is 19</t>
-  </si>
-  <si>
-    <t>this is 20</t>
-  </si>
-  <si>
-    <t>this is 21</t>
-  </si>
-  <si>
-    <t>this is 22</t>
-  </si>
-  <si>
-    <t>this is 23</t>
-  </si>
-  <si>
-    <t>this is 24</t>
-  </si>
-  <si>
-    <t>this is 25</t>
-  </si>
-  <si>
-    <t>this is 26</t>
-  </si>
-  <si>
-    <t>this is 27</t>
-  </si>
-  <si>
-    <t>this is 28</t>
-  </si>
-  <si>
-    <t>this is 29</t>
-  </si>
-  <si>
-    <t>this is 30</t>
-  </si>
-  <si>
-    <t>this is 31</t>
-  </si>
-  <si>
-    <t>this is 32</t>
-  </si>
-  <si>
-    <t>this is 33</t>
-  </si>
-  <si>
-    <t>this is 34</t>
-  </si>
-  <si>
-    <t>this is 35</t>
-  </si>
-  <si>
-    <t>this is 36</t>
-  </si>
-  <si>
-    <t>this is 37</t>
-  </si>
-  <si>
-    <t>this is 38</t>
-  </si>
-  <si>
-    <t>this is 39</t>
-  </si>
-  <si>
-    <t>this is 40</t>
-  </si>
-  <si>
-    <t>this is 41</t>
-  </si>
-  <si>
-    <t>this is 42</t>
-  </si>
-  <si>
-    <t>this is 43</t>
-  </si>
-  <si>
-    <t>this is 44</t>
-  </si>
-  <si>
-    <t>this is 45</t>
-  </si>
-  <si>
-    <t>this is 46</t>
-  </si>
-  <si>
-    <t>this is 47</t>
-  </si>
-  <si>
-    <t>this is 48</t>
-  </si>
-  <si>
-    <t>this is 49</t>
-  </si>
-  <si>
-    <t>this is 50</t>
-  </si>
-  <si>
-    <t>this is 51</t>
-  </si>
-  <si>
-    <t>this is 52</t>
-  </si>
-  <si>
-    <t>this is 53</t>
-  </si>
-  <si>
-    <t>this is 54</t>
-  </si>
-  <si>
-    <t>this is 55</t>
-  </si>
-  <si>
-    <t>this is 56</t>
-  </si>
-  <si>
-    <t>this is 57</t>
-  </si>
-  <si>
-    <t>this is 58</t>
-  </si>
-  <si>
-    <t>this is 59</t>
-  </si>
-  <si>
-    <t>this is 60</t>
-  </si>
-  <si>
-    <t>this is 61</t>
-  </si>
-  <si>
-    <t>this is 62</t>
-  </si>
-  <si>
-    <t>this is 63</t>
-  </si>
-  <si>
-    <t>this is 64</t>
-  </si>
-  <si>
-    <t>this is 65</t>
-  </si>
-  <si>
-    <t>this is 66</t>
-  </si>
-  <si>
-    <t>this is 67</t>
-  </si>
-  <si>
-    <t>this is 68</t>
-  </si>
-  <si>
-    <t>this is 69</t>
-  </si>
-  <si>
-    <t>this is 70</t>
-  </si>
-  <si>
-    <t>this is 71</t>
-  </si>
-  <si>
-    <t>this is 72</t>
-  </si>
-  <si>
-    <t>this is 73</t>
-  </si>
-  <si>
-    <t>this is 74</t>
-  </si>
-  <si>
-    <t>this is 75</t>
-  </si>
-  <si>
-    <t>this is 76</t>
-  </si>
-  <si>
-    <t>this is 77</t>
-  </si>
-  <si>
-    <t>this is 78</t>
-  </si>
-  <si>
-    <t>this is 79</t>
-  </si>
-  <si>
-    <t>this is 80</t>
-  </si>
-  <si>
-    <t>this is 81</t>
-  </si>
-  <si>
-    <t>this is 82</t>
-  </si>
-  <si>
-    <t>this is 83</t>
-  </si>
-  <si>
-    <t>this is 84</t>
-  </si>
-  <si>
-    <t>this is 85</t>
-  </si>
-  <si>
-    <t>this is 86</t>
-  </si>
-  <si>
-    <t>this is 87</t>
-  </si>
-  <si>
-    <t>this is 88</t>
-  </si>
-  <si>
-    <t>this is 89</t>
-  </si>
-  <si>
-    <t>this is 90</t>
-  </si>
-  <si>
-    <t>this is 91</t>
-  </si>
-  <si>
-    <t>this is 92</t>
-  </si>
-  <si>
-    <t>this is 93</t>
-  </si>
-  <si>
-    <t>this is 94</t>
-  </si>
-  <si>
-    <t>this is 95</t>
-  </si>
-  <si>
-    <t>this is 96</t>
-  </si>
-  <si>
-    <t>this is 97</t>
-  </si>
-  <si>
-    <t>this is 98</t>
-  </si>
-  <si>
-    <t>this is 99</t>
-  </si>
-  <si>
-    <t>Nwq1</t>
-  </si>
-  <si>
-    <t>Nwq2</t>
-  </si>
-  <si>
-    <t>Nwq3</t>
-  </si>
-  <si>
-    <t>Nwq4</t>
-  </si>
-  <si>
-    <t>Nwq5</t>
-  </si>
-  <si>
-    <t>Nwq6</t>
-  </si>
-  <si>
-    <t>Nwq7</t>
-  </si>
-  <si>
-    <t>Nwq8</t>
-  </si>
-  <si>
-    <t>Nwq9</t>
-  </si>
-  <si>
-    <t>Nwq10</t>
-  </si>
-  <si>
-    <t>Nwq11</t>
-  </si>
-  <si>
-    <t>Nwq12</t>
-  </si>
-  <si>
-    <t>Nwq13</t>
-  </si>
-  <si>
-    <t>Nwq14</t>
-  </si>
-  <si>
-    <t>Nwq15</t>
-  </si>
-  <si>
-    <t>Nwq16</t>
-  </si>
-  <si>
-    <t>Nwq17</t>
-  </si>
-  <si>
-    <t>Nwq18</t>
-  </si>
-  <si>
-    <t>Nwq19</t>
-  </si>
-  <si>
-    <t>Nwq20</t>
-  </si>
-  <si>
-    <t>Nwq21</t>
-  </si>
-  <si>
-    <t>Nwq22</t>
-  </si>
-  <si>
-    <t>Nwq23</t>
-  </si>
-  <si>
-    <t>Nwq24</t>
-  </si>
-  <si>
-    <t>Nwq25</t>
-  </si>
-  <si>
-    <t>Nwq26</t>
-  </si>
-  <si>
-    <t>Nwq27</t>
-  </si>
-  <si>
-    <t>Nwq28</t>
-  </si>
-  <si>
-    <t>Nwq29</t>
-  </si>
-  <si>
-    <t>Nwq30</t>
-  </si>
-  <si>
-    <t>Nwq31</t>
-  </si>
-  <si>
-    <t>Nwq32</t>
-  </si>
-  <si>
-    <t>Nwq33</t>
-  </si>
-  <si>
-    <t>Nwq34</t>
-  </si>
-  <si>
-    <t>Nwq35</t>
-  </si>
-  <si>
-    <t>Nwq36</t>
-  </si>
-  <si>
-    <t>Nwq37</t>
-  </si>
-  <si>
-    <t>Nwq38</t>
-  </si>
-  <si>
-    <t>Nwq39</t>
-  </si>
-  <si>
-    <t>Nwq40</t>
-  </si>
-  <si>
-    <t>Nwq41</t>
-  </si>
-  <si>
-    <t>Nwq42</t>
-  </si>
-  <si>
-    <t>Nwq43</t>
-  </si>
-  <si>
-    <t>Nwq44</t>
-  </si>
-  <si>
-    <t>Nwq45</t>
-  </si>
-  <si>
-    <t>Nwq46</t>
-  </si>
-  <si>
-    <t>Nwq47</t>
-  </si>
-  <si>
-    <t>Nwq48</t>
-  </si>
-  <si>
-    <t>Nwq49</t>
-  </si>
-  <si>
-    <t>Nwq50</t>
-  </si>
-  <si>
-    <t>Nwq51</t>
-  </si>
-  <si>
-    <t>Nwq52</t>
-  </si>
-  <si>
-    <t>Nwq53</t>
-  </si>
-  <si>
-    <t>Nwq54</t>
-  </si>
-  <si>
-    <t>Nwq55</t>
-  </si>
-  <si>
-    <t>Nwq56</t>
-  </si>
-  <si>
-    <t>Nwq57</t>
-  </si>
-  <si>
-    <t>Nwq58</t>
-  </si>
-  <si>
-    <t>Nwq59</t>
-  </si>
-  <si>
-    <t>Nwq60</t>
-  </si>
-  <si>
-    <t>Nwq61</t>
-  </si>
-  <si>
-    <t>Nwq62</t>
-  </si>
-  <si>
-    <t>Nwq63</t>
-  </si>
-  <si>
-    <t>Nwq64</t>
-  </si>
-  <si>
-    <t>Nwq65</t>
-  </si>
-  <si>
-    <t>Nwq66</t>
-  </si>
-  <si>
-    <t>Nwq67</t>
-  </si>
-  <si>
-    <t>Nwq68</t>
-  </si>
-  <si>
-    <t>Nwq69</t>
-  </si>
-  <si>
-    <t>Nwq70</t>
-  </si>
-  <si>
-    <t>Nwq71</t>
-  </si>
-  <si>
-    <t>Nwq72</t>
-  </si>
-  <si>
-    <t>Nwq73</t>
-  </si>
-  <si>
-    <t>Nwq74</t>
-  </si>
-  <si>
-    <t>Nwq75</t>
-  </si>
-  <si>
-    <t>Nwq76</t>
-  </si>
-  <si>
-    <t>Nwq77</t>
-  </si>
-  <si>
-    <t>Nwq78</t>
-  </si>
-  <si>
-    <t>Nwq79</t>
-  </si>
-  <si>
-    <t>Nwq80</t>
-  </si>
-  <si>
-    <t>Nwq81</t>
-  </si>
-  <si>
-    <t>Nwq82</t>
-  </si>
-  <si>
-    <t>Nwq83</t>
-  </si>
-  <si>
-    <t>Nwq84</t>
-  </si>
-  <si>
-    <t>Nwq85</t>
-  </si>
-  <si>
-    <t>Nwq86</t>
-  </si>
-  <si>
-    <t>Nwq87</t>
-  </si>
-  <si>
-    <t>Nwq88</t>
-  </si>
-  <si>
-    <t>Nwq89</t>
-  </si>
-  <si>
-    <t>Nwq90</t>
-  </si>
-  <si>
-    <t>Nwq91</t>
-  </si>
-  <si>
-    <t>Nwq92</t>
-  </si>
-  <si>
-    <t>Nwq93</t>
-  </si>
-  <si>
-    <t>Nwq94</t>
-  </si>
-  <si>
-    <t>Nwq95</t>
-  </si>
-  <si>
-    <t>Nwq96</t>
-  </si>
-  <si>
-    <t>Nwq97</t>
-  </si>
-  <si>
-    <t>Nwq98</t>
-  </si>
-  <si>
-    <t>Nwq99</t>
-  </si>
-  <si>
-    <t>Groupname</t>
-  </si>
-  <si>
-    <t>PerformerWorkbookFilter</t>
-  </si>
-  <si>
-    <t>PerformerFilter</t>
-  </si>
-  <si>
-    <t>forfilter</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>weekly</t>
-  </si>
-  <si>
-    <t>monthly</t>
-  </si>
-  <si>
-    <t>yearly</t>
-  </si>
-  <si>
-    <t>daily pinpoint</t>
-  </si>
-  <si>
-    <t>weekly pinpoint</t>
-  </si>
-  <si>
-    <t>monthly pinpoint</t>
-  </si>
-  <si>
-    <t>yearly pinpoint</t>
-  </si>
-  <si>
-    <t>Grpsort1</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>Grpsort2</t>
-  </si>
-  <si>
-    <t>Grpsort3</t>
-  </si>
-  <si>
-    <t>This is description</t>
-  </si>
-  <si>
-    <t>SortPinpointInworkbook</t>
-  </si>
-  <si>
-    <t>SortPinpointInWorkbook</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>SortPinpointInWorkbookId</t>
-  </si>
-  <si>
-    <t>SortPinpointInWorkbookName</t>
-  </si>
-  <si>
-    <t>SortPinpointInWorkbookID</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>forsort</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>sortPinpointInWorkbookByID</t>
-  </si>
-  <si>
-    <t>ChangePerformerFromChartTable</t>
-  </si>
-  <si>
-    <t>charttable</t>
-  </si>
-  <si>
-    <t>changeperformer2</t>
-  </si>
-  <si>
-    <t>changeperformer1</t>
-  </si>
-  <si>
-    <t>ChangePerformerfromChartTab</t>
-  </si>
-  <si>
-    <t>changeperformerfromchartTab1</t>
-  </si>
-  <si>
-    <t>changeperformerfromchartTab2</t>
-  </si>
-  <si>
-    <t>ChangePerformerFromChartTab</t>
-  </si>
-  <si>
-    <t>changeperform</t>
-  </si>
-  <si>
-    <t>ChangePerformerfromWorksheet</t>
-  </si>
-  <si>
-    <t>ChangePerformerfromWorksheet1</t>
-  </si>
-  <si>
-    <t>ChangePerformerfromWorksheet2</t>
-  </si>
-  <si>
-    <t>ChangePerformerfromProfileTab</t>
-  </si>
-  <si>
-    <t>ProfileTabChangePerformer</t>
-  </si>
-  <si>
-    <t>TabProfileChangePerformer</t>
-  </si>
-  <si>
-    <t>ChangePerformerfromPinpointTab</t>
-  </si>
-  <si>
-    <t>PinpointTabChangePerformer</t>
-  </si>
-  <si>
-    <t>TabPinpointChangePerformer</t>
-  </si>
-  <si>
-    <t>ChangePerformerfromConditionTab</t>
-  </si>
-  <si>
-    <t>ConditionTabChangePerformer</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>TabConditionChangePerformer</t>
-  </si>
-  <si>
-    <t>ChangePerformerfromAccessControlTab</t>
-  </si>
-  <si>
-    <t>AccessTabChangePerformer</t>
-  </si>
-  <si>
-    <t>TabAccessChangePerformer</t>
-  </si>
-  <si>
-    <t>testingapptrial+firefoxsmoke@gmail.com</t>
-  </si>
-  <si>
-    <t>123456qwert</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
-    <t>Account Type(Organization/Personal)</t>
-  </si>
-  <si>
-    <t>pinpoint3</t>
-  </si>
-  <si>
-    <t>Creates Pinpoint to Group3</t>
-  </si>
-  <si>
-    <t>adds pinpoint3</t>
-  </si>
-  <si>
-    <t>SetPerformerDefaultForPinpoint</t>
-  </si>
-  <si>
-    <t>performer</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>SetPerformerDefaultPinpoint</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>DUAMx</t>
-  </si>
-  <si>
-    <t>DUAMi</t>
-  </si>
-  <si>
-    <t>LAMx</t>
-  </si>
-  <si>
-    <t>LAMi</t>
+    <t xml:space="preserve">- doing work </t>
+  </si>
+  <si>
+    <t>Assign Pinpoint  To Group</t>
+  </si>
+  <si>
+    <t>- verify frequency</t>
   </si>
 </sst>
 </file>
@@ -3225,7 +1499,7 @@
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3286,13 +1560,6 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3601,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3614,15 +1881,14 @@
     <col min="3" max="3" width="40.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3638,36 +1904,30 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>317</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>1007</v>
+      <c r="C3" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>1008</v>
+        <v>321</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F3" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -3675,7 +1935,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" s="17" t="s">
         <v>320</v>
       </c>
@@ -3683,3472 +1943,54 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="25" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="12" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="http://dev.chartlytics.com"/>
-    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A6:O7"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="15" max="16" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>501</v>
-      </c>
-      <c r="B6" t="s">
-        <v>502</v>
-      </c>
-      <c r="C6" t="s">
-        <v>503</v>
-      </c>
-      <c r="D6" t="s">
-        <v>504</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s">
-        <v>505</v>
-      </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" t="s">
-        <v>506</v>
-      </c>
-      <c r="I6" t="s">
-        <v>507</v>
-      </c>
-      <c r="J6" t="s">
-        <v>508</v>
-      </c>
-      <c r="K6" t="s">
-        <v>437</v>
-      </c>
-      <c r="L6" t="s">
-        <v>509</v>
-      </c>
-      <c r="M6" t="s">
-        <v>510</v>
-      </c>
-      <c r="N6" t="s">
-        <v>511</v>
-      </c>
-      <c r="O6" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>513</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="37" t="s">
-        <v>534</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37" t="s">
-        <v>485</v>
-      </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37" t="s">
-        <v>535</v>
-      </c>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="12" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>533</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:Q11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="37" t="s">
-        <v>549</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="G2" s="37" t="s">
-        <v>554</v>
-      </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="12" t="s">
-        <v>568</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="12">
-        <v>16</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="12">
-        <v>17</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="12">
-        <v>18</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="12">
-        <v>19</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N22" s="12" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="12">
-        <v>20</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="12">
-        <v>21</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N24" s="12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="12">
-        <v>22</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="12">
-        <v>23</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="12">
-        <v>24</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="12">
-        <v>25</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N28" s="12" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="12">
-        <v>26</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="12">
-        <v>27</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="12">
-        <v>28</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="12">
-        <v>29</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N32" s="12" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="12">
-        <v>30</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N33" s="12" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="12">
-        <v>31</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M34" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N34" s="12" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="12">
-        <v>32</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M35" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N35" s="12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="12">
-        <v>33</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M36" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N36" s="12" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="12">
-        <v>34</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M37" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N37" s="12" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="12">
-        <v>35</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N38" s="12" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="12">
-        <v>36</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M39" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N39" s="12" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="12">
-        <v>37</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M40" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N40" s="12" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="12">
-        <v>38</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M41" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N41" s="12" t="s">
-        <v>566</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G2:L2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
-        <v>627</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>629</v>
-      </c>
-      <c r="B7" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="12" t="s">
-        <v>640</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C100"/>
-  <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>756</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>757</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>758</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>759</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>760</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>761</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="12" t="s">
-        <v>663</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>762</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>763</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>665</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>764</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="12" t="s">
-        <v>666</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>765</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="12" t="s">
-        <v>667</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>766</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>767</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="12" t="s">
-        <v>669</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>768</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="12" t="s">
-        <v>670</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>769</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="12" t="s">
-        <v>671</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>770</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="12" t="s">
-        <v>672</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>771</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="12" t="s">
-        <v>673</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>772</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="12" t="s">
-        <v>674</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>773</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="12" t="s">
-        <v>675</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>774</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="12" t="s">
-        <v>676</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>775</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="12" t="s">
-        <v>677</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>776</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="12" t="s">
-        <v>678</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>777</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>778</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>779</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>780</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>781</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>782</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>783</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="12" t="s">
-        <v>685</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>784</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>785</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>786</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>787</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>788</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>789</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="12" t="s">
-        <v>691</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>790</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="12" t="s">
-        <v>692</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>791</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="12" t="s">
-        <v>693</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="12" t="s">
-        <v>694</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>793</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="12" t="s">
-        <v>695</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>794</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>795</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="12" t="s">
-        <v>697</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>796</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="12" t="s">
-        <v>698</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>797</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="12" t="s">
-        <v>699</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>798</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="12" t="s">
-        <v>700</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>799</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="12" t="s">
-        <v>701</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>800</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="12" t="s">
-        <v>702</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>801</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>802</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>803</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="12" t="s">
-        <v>705</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>804</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="12" t="s">
-        <v>706</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="12" t="s">
-        <v>707</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>806</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="12" t="s">
-        <v>708</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>807</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="12" t="s">
-        <v>709</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>808</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="12" t="s">
-        <v>710</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>809</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>810</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="12" t="s">
-        <v>712</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>811</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>812</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>813</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>814</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="12" t="s">
-        <v>716</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>815</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="12" t="s">
-        <v>717</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>816</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="12" t="s">
-        <v>718</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>817</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="12" t="s">
-        <v>719</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>818</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="12" t="s">
-        <v>720</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>819</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>820</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="12" t="s">
-        <v>722</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>821</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>822</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>823</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="12" t="s">
-        <v>725</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>824</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="12" t="s">
-        <v>726</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>825</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="12" t="s">
-        <v>727</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>826</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>827</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="12" t="s">
-        <v>729</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>828</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="12" t="s">
-        <v>730</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>829</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="12" t="s">
-        <v>731</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>830</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="12" t="s">
-        <v>732</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>831</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>832</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="12" t="s">
-        <v>734</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>833</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="12" t="s">
-        <v>735</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>834</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>835</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="12" t="s">
-        <v>737</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>836</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="12" t="s">
-        <v>738</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>837</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>838</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="12" t="s">
-        <v>740</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>839</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="12" t="s">
-        <v>741</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>840</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="12" t="s">
-        <v>742</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>841</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="12" t="s">
-        <v>743</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>842</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="12" t="s">
-        <v>744</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>843</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="12" t="s">
-        <v>745</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>844</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="12" t="s">
-        <v>746</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>845</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="12" t="s">
-        <v>747</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>846</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="12" t="s">
-        <v>748</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>847</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="12" t="s">
-        <v>749</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>848</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="12" t="s">
-        <v>750</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>849</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="12" t="s">
-        <v>751</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>850</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="12" t="s">
-        <v>752</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>851</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="12" t="s">
-        <v>753</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>852</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="12" t="s">
-        <v>754</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>853</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="12" t="s">
-        <v>755</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>854</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>953</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7302,16 +2144,16 @@
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="2" t="s">
         <v>33</v>
       </c>
@@ -7545,420 +2387,6 @@
       </c>
       <c r="D29" s="12" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="12" t="s">
-        <v>580</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="7" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="12" t="s">
-        <v>612</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="7" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="12" t="s">
-        <v>956</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="7" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="12" t="s">
-        <v>971</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="7" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="12" t="s">
-        <v>987</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="34" t="s">
-        <v>988</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="7" t="s">
-        <v>991</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="12" t="s">
-        <v>992</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="12" t="s">
-        <v>993</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="7" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="12" t="s">
-        <v>995</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="12" t="s">
-        <v>996</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="7" t="s">
-        <v>997</v>
-      </c>
-      <c r="C54" s="12"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="12" t="s">
-        <v>998</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="12" t="s">
-        <v>999</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="7" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="12" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="12" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="7" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="12" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="12" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="7" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C63" s="12"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="12" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="7" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>1019</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>1020</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="12" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="J66" s="12" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +2404,7 @@
   <dimension ref="A1:R229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7995,31 +2423,31 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
     </row>
     <row r="4" spans="1:18">
       <c r="B4" s="8" t="s">
@@ -20687,35 +15115,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
@@ -20795,1165 +15222,174 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="34" t="s">
+      <c r="F6" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>384</v>
-      </c>
-      <c r="G5" s="34" t="s">
+      <c r="F7" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H7" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="I5" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="J5" s="34" t="s">
+      <c r="E8" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K8" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="L5" s="34" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="33" t="s">
-        <v>386</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>384</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>384</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>384</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>392</v>
+      <c r="L8" s="12" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>622</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="7"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
-        <v>572</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>574</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
-        <v>575</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>577</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>578</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="12" t="s">
-        <v>581</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>585</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="12" t="s">
-        <v>582</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="12" t="s">
-        <v>588</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>590</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="12" t="s">
-        <v>603</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>607</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="7" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="12" t="s">
-        <v>615</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>616</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>617</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="7" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="7" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>633</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>634</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="7" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="2" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="12" t="s">
-        <v>955</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>958</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>957</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="12" t="s">
-        <v>955</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>959</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>957</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="12" t="s">
-        <v>955</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>960</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>957</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="12" t="s">
-        <v>955</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>961</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>957</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="7" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="12" t="s">
-        <v>972</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>973</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>979</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="12" t="s">
-        <v>972</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>974</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>979</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="12" t="s">
-        <v>972</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>979</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="12" t="s">
-        <v>972</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>979</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="7" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="12" t="s">
-        <v>977</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>585</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>978</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="12" t="s">
-        <v>977</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>978</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L48" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="7" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="12" t="s">
-        <v>982</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>985</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>634</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>983</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="12" t="s">
-        <v>982</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>984</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>634</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>983</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="7" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="12" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K53" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -21969,7 +15405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -22167,15 +15603,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -22233,73 +15669,57 @@
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="7" t="s">
-        <v>394</v>
-      </c>
+      <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-    </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="B8" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="C8" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F8" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="I8" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="G7" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>401</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>402</v>
-      </c>
-      <c r="K7" s="26" t="s">
+      <c r="J8" s="26" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="K8" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="12" t="s">
@@ -22309,59 +15729,59 @@
         <v>42</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>312</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>44</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39" t="s">
-        <v>407</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39" t="s">
+      <c r="A10" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39" t="s">
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
@@ -22374,13 +15794,13 @@
         <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E11" t="s">
         <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G11" t="s">
         <v>60</v>
@@ -22401,7 +15821,7 @@
         <v>64</v>
       </c>
       <c r="M11" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N11" t="s">
         <v>66</v>
@@ -22470,178 +15890,20 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="37" t="s">
-        <v>411</v>
-      </c>
-      <c r="B14" s="37"/>
+      <c r="A14" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="B14" s="32"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="12"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="7" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="12"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="33" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="33" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="33" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="12" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="12" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="12" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="7" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="12" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="12" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="7" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="12" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="7"/>
+        <v>446</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -22658,15 +15920,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
@@ -22700,22 +15962,11 @@
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="12" t="s">
-        <v>954</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>655</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>656</v>
-      </c>
-    </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="35"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
@@ -22752,11 +16003,11 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
@@ -22777,13 +16028,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="12" t="s">
-        <v>609</v>
+        <v>369</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>362</v>
@@ -22793,10 +16044,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="35"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
@@ -22811,13 +16062,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -22833,13 +16084,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -22867,13 +16118,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="12" t="s">
-        <v>610</v>
+        <v>378</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>362</v>
@@ -22882,56 +16133,53 @@
         <v>359</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2"/>
-    </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+        <v>438</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="2" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="12" t="s">
-        <v>597</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>599</v>
+      <c r="A34" t="s">
+        <v>439</v>
+      </c>
+      <c r="B34" t="s">
+        <v>440</v>
+      </c>
+      <c r="C34" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>600</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="12" t="s">
-        <v>601</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>605</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>523</v>
+        <v>3</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>331</v>
@@ -22941,146 +16189,24 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="12" t="s">
-        <v>1012</v>
+      <c r="A41" s="30" t="s">
+        <v>443</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>606</v>
+        <v>444</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>602</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="2"/>
+      <c r="A43" s="2" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="12"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>649</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="12" t="s">
-        <v>645</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>651</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="12" t="s">
-        <v>647</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>654</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>966</v>
-      </c>
-      <c r="B139" t="s">
-        <v>970</v>
-      </c>
-      <c r="C139" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>968</v>
-      </c>
-      <c r="B140" t="s">
-        <v>970</v>
-      </c>
-      <c r="C140" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>969</v>
-      </c>
-      <c r="B141" t="s">
-        <v>970</v>
-      </c>
-      <c r="C141" t="s">
-        <v>967</v>
+      <c r="A44" s="12" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -23098,8 +16224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23137,7 +16263,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
@@ -23163,7 +16289,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -23173,37 +16299,37 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="26" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>302</v>
       </c>
       <c r="F8" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="I8" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>401</v>
-      </c>
       <c r="J8" s="26" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
@@ -23216,59 +16342,59 @@
         <v>42</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>312</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>44</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39" t="s">
-        <v>407</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39" t="s">
+      <c r="A10" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39" t="s">
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
@@ -23281,13 +16407,13 @@
         <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E11" t="s">
         <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G11" t="s">
         <v>60</v>
@@ -23308,7 +16434,7 @@
         <v>64</v>
       </c>
       <c r="M11" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N11" t="s">
         <v>66</v>
@@ -23378,46 +16504,46 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B14" s="28"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="12" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E19" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F19" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -23425,13 +16551,13 @@
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>313</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E20">
         <v>17</v>
@@ -23445,10 +16571,10 @@
         <v>1.0416666666666667E-4</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>26</v>
@@ -23465,13 +16591,13 @@
         <v>9.0277777777777784E-4</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>312</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E22">
         <v>46</v>
@@ -23485,13 +16611,13 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E23">
         <v>0.5</v>
@@ -23505,10 +16631,10 @@
         <v>9.2592592592592585E-4</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>44</v>
@@ -23534,827 +16660,12 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N28" sqref="N26:P28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="37" t="s">
-        <v>406</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37" t="s">
-        <v>407</v>
-      </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37" t="s">
-        <v>485</v>
-      </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q20" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="12" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="12" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="12" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="12" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="12" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:Q18"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sauce-project/src/test/java/com/yourcompany/dataexcel.xlsx
+++ b/sauce-project/src/test/java/com/yourcompany/dataexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14610" windowHeight="4515" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14610" windowHeight="4515"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4550" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4550" uniqueCount="450">
   <si>
     <t>BaseUrl</t>
   </si>
@@ -1371,6 +1371,9 @@
   </si>
   <si>
     <t>- verify frequency</t>
+  </si>
+  <si>
+    <t>testingapptrial+firefoxsmoke@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1502,7 @@
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1572,6 +1575,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1870,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1912,8 +1916,8 @@
       <c r="B3" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>320</v>
+      <c r="C3" s="36" t="s">
+        <v>449</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>321</v>
@@ -1967,9 +1971,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="http://dev.chartlytics.com"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -15922,7 +15927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>

--- a/sauce-project/src/test/java/com/yourcompany/dataexcel.xlsx
+++ b/sauce-project/src/test/java/com/yourcompany/dataexcel.xlsx
@@ -1373,7 +1373,7 @@
     <t>- verify frequency</t>
   </si>
   <si>
-    <t>testingapptrial+firefoxsmoke@gmail.com</t>
+    <t>testingapptrial+TestAuto@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1563,6 +1563,7 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1575,7 +1576,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1916,7 +1916,7 @@
       <c r="B3" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="32" t="s">
         <v>449</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -2149,16 +2149,16 @@
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="2" t="s">
         <v>33</v>
       </c>
@@ -2428,31 +2428,31 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
     </row>
     <row r="4" spans="1:18">
       <c r="B4" s="8" t="s">
@@ -15134,20 +15134,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
@@ -15762,31 +15762,31 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34" t="s">
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34" t="s">
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
@@ -15895,10 +15895,10 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="B14" s="32"/>
+      <c r="B14" s="33"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
@@ -15968,10 +15968,10 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="36"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
@@ -16008,11 +16008,11 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
@@ -16049,10 +16049,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="36"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
@@ -16375,31 +16375,31 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34" t="s">
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34" t="s">
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
